--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -233,6 +233,72 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 11:00:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Chaudhary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/761753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 12:10:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utsav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 12:10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshar Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 12:19:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vayun Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 12:38:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanshi Agrawal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22064 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil</t>
   </si>
 </sst>
 </file>
@@ -360,7 +426,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -670,6 +736,106 @@
         <v>62</v>
       </c>
       <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -690,6 +856,11 @@
     <hyperlink ref="D13" r:id="rId12" display="https://www.beecrowd.com.br/judge/en/profile/776049"/>
     <hyperlink ref="D14" r:id="rId13" display="https://www.beecrowd.com.br/judge/en/profile/775838"/>
     <hyperlink ref="D15" r:id="rId14" display="https://www.beecrowd.com.br/judge/en/profile/776068"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.beecrowd.com.br/judge/en/profile/761753"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.beecrowd.com.br/judge/en/profile/776088"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.beecrowd.com.br/judge/en/profile/776097"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.beecrowd.com.br/judge/en/profile/776096"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.beecrowd.com.br/judge/en/profile/775833"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775834</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Science</t>
+    <t xml:space="preserve">DSE</t>
   </si>
   <si>
     <t xml:space="preserve">1/2/2023 20:34:09</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775849</t>
   </si>
   <si>
-    <t xml:space="preserve">Mechanical Engineering </t>
+    <t xml:space="preserve">ME</t>
   </si>
   <si>
     <t xml:space="preserve">1/2/2023 20:54:14</t>
@@ -121,9 +121,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775779</t>
   </si>
   <si>
-    <t xml:space="preserve">Data science </t>
-  </si>
-  <si>
     <t xml:space="preserve">1/2/2023 21:32:49</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775783</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Science and Engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/2/2023 23:46:31</t>
   </si>
   <si>
@@ -163,7 +157,7 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/761282</t>
   </si>
   <si>
-    <t xml:space="preserve">Bio Engineering</t>
+    <t xml:space="preserve">BioE</t>
   </si>
   <si>
     <t xml:space="preserve">1/3/2023 0:53:45</t>
@@ -178,9 +172,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775941</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Science Engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/3/2023 7:35:30</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776042</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Science</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/3/2023 8:16:59</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776049</t>
   </si>
   <si>
-    <t xml:space="preserve">Bioengineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/3/2023 9:48:56</t>
   </si>
   <si>
@@ -259,7 +244,7 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776088</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Engineering</t>
+    <t xml:space="preserve">EE</t>
   </si>
   <si>
     <t xml:space="preserve">1/3/2023 12:10:56</t>
@@ -299,6 +284,39 @@
   </si>
   <si>
     <t xml:space="preserve">Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 14:01:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Sinha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 14:22:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simroop singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b22178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 14:58:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidulaa Anand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/612390</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -338,6 +356,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,6 +427,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,7 +454,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -573,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -581,16 +609,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -599,21 +627,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -621,59 +649,59 @@
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -681,19 +709,19 @@
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -701,16 +729,16 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -721,19 +749,19 @@
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -741,16 +769,16 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -761,39 +789,39 @@
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -801,16 +829,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -821,21 +849,81 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,6 +949,9 @@
     <hyperlink ref="D18" r:id="rId17" display="https://www.beecrowd.com.br/judge/en/profile/776097"/>
     <hyperlink ref="D19" r:id="rId18" display="https://www.beecrowd.com.br/judge/en/profile/776096"/>
     <hyperlink ref="D20" r:id="rId19" display="https://www.beecrowd.com.br/judge/en/profile/775833"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www.beecrowd.com.br/judge/en/profile/776119"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www.beecrowd.com.br/judge/en/profile/775779"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://www.beecrowd.com.br/judge/en/profile/612390"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775833</t>
   </si>
   <si>
-    <t xml:space="preserve">Civil</t>
+    <t xml:space="preserve">CE</t>
   </si>
   <si>
     <t xml:space="preserve">1/3/2023 14:01:14</t>
@@ -317,6 +317,105 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/612390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 15:56:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Ubal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b22341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 16:39:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 16:43:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jatin Prasad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 16:59:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyush Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 17:30:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai Sruthi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b21202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 18:12:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyam Suman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 18:17:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyam Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 18:21:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Amlavad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776177</t>
   </si>
 </sst>
 </file>
@@ -327,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,12 +455,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,10 +520,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +543,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -647,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -707,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -720,7 +809,7 @@
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -747,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -760,7 +849,7 @@
       <c r="D15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -787,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -924,6 +1013,166 @@
         <v>15</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -952,6 +1201,14 @@
     <hyperlink ref="D21" r:id="rId20" display="https://www.beecrowd.com.br/judge/en/profile/776119"/>
     <hyperlink ref="D22" r:id="rId21" display="https://www.beecrowd.com.br/judge/en/profile/775779"/>
     <hyperlink ref="D23" r:id="rId22" display="https://www.beecrowd.com.br/judge/en/profile/612390"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://www.beecrowd.com.br/judge/en/profile/776138"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://www.beecrowd.com.br/judge/en/profile/776085"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www.beecrowd.com.br/judge/en/profile/776143"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://www.beecrowd.com.br/judge/en/profile/776150"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://www.beecrowd.com.br/judge/en/profile/776087"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://www.beecrowd.com.br/judge/en/profile/776180"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://www.beecrowd.com.br/judge/en/profile/776183"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://www.beecrowd.com.br/judge/en/profile/776177"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -416,6 +416,141 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 18:57:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiva Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 19:07:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devendra Virani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 19:32:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 20:00:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 20:04:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 20:26:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sameer Singh Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 20:44:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 21:22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrey Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 22:13:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanket Ramteke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b22235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/761473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3/2023 23:48:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atul Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 8:07:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijith Raju Nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/761288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 12:12:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BipanjitSingh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776465</t>
   </si>
 </sst>
 </file>
@@ -542,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1173,6 +1308,246 @@
         <v>15</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1209,6 +1584,18 @@
     <hyperlink ref="D29" r:id="rId28" display="https://www.beecrowd.com.br/judge/en/profile/776180"/>
     <hyperlink ref="D30" r:id="rId29" display="https://www.beecrowd.com.br/judge/en/profile/776183"/>
     <hyperlink ref="D31" r:id="rId30" display="https://www.beecrowd.com.br/judge/en/profile/776177"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://www.beecrowd.com.br/judge/en/profile/775781"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://www.beecrowd.com.br/judge/en/profile/776199"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://www.beecrowd.com.br/judge/en/profile/776208"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://www.beecrowd.com.br/judge/en/profile/776226"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://www.beecrowd.com.br/judge/en/profile/775941"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://www.beecrowd.com.br/judge/en/profile/776234"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://www.beecrowd.com.br/judge/en/profile/776067"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://www.beecrowd.com.br/judge/en/profile/776237"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://www.beecrowd.com.br/judge/en/profile/761473"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://www.beecrowd.com.br/judge/en/profile/776300"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://www.beecrowd.com.br/judge/en/profile/761288"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://www.beecrowd.com.br/judge/en/profile/776465"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="227">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -551,6 +551,156 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 19:54:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Ashwani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 20:09:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUJAT ALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/775274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 20:52:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansraj Swami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 20:52:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat Bujethiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 20:58:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj Melchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/612351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4/2023 23:58:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishab Bairi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/612173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 0:32:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha Rani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/769955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 0:45:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilal Muhammad Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 3:41:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chetan kukreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b22097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 3:52:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aridaman Singh Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 12:06:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://beecrowd.com.br/judge/en/profile/776556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 12:29:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhawya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b21039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/612398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 13:43:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divyansh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776820</t>
   </si>
 </sst>
 </file>
@@ -641,7 +791,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -656,6 +806,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -677,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1551,6 +1705,337 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
@@ -1596,6 +2081,19 @@
     <hyperlink ref="D41" r:id="rId40" display="https://www.beecrowd.com.br/judge/en/profile/776300"/>
     <hyperlink ref="D42" r:id="rId41" display="https://www.beecrowd.com.br/judge/en/profile/761288"/>
     <hyperlink ref="D43" r:id="rId42" display="https://www.beecrowd.com.br/judge/en/profile/776465"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://www.beecrowd.com.br/judge/en/profile/776567"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://www.beecrowd.com.br/judge/en/profile/775274"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://www.beecrowd.com.br/judge/en/profile/776600"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://www.beecrowd.com.br/judge/en/profile/776551"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.beecrowd.com.br/judge/en/profile/612351"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.beecrowd.com.br/judge/en/profile/612173"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.beecrowd.com.br/judge/en/profile/769955"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.beecrowd.com.br/judge/en/profile/776677"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://www.beecrowd.com.br/judge/en/profile/776556"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www.beecrowd.com.br/judge/en/profile/776723"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://beecrowd.com.br/judge/en/profile/776556"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://www.beecrowd.com.br/judge/en/profile/612398"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://www.beecrowd.com.br/judge/en/profile/776820"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -831,8 +831,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1301,8 +1301,8 @@
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
+      <c r="F23" s="3" t="n">
+        <v>52.8361</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,8 +1801,8 @@
       <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
+      <c r="F48" s="3" t="n">
+        <v>305.5437</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,8 +1821,8 @@
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
+      <c r="F49" s="3" t="n">
+        <v>40.5648</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="222">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -298,15 +298,6 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776119</t>
   </si>
   <si>
-    <t xml:space="preserve">1/3/2023 14:22:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simroop singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b22178</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/3/2023 14:58:25</t>
   </si>
   <si>
@@ -649,31 +640,25 @@
     <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776677</t>
   </si>
   <si>
-    <t xml:space="preserve">1/5/2023 3:41:15</t>
+    <t xml:space="preserve">1/5/2023 3:52:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aridaman Singh Chauhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B22259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5/2023 12:06:36</t>
   </si>
   <si>
     <t xml:space="preserve">chetan kukreja</t>
   </si>
   <si>
     <t xml:space="preserve">b22097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/5/2023 3:52:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aridaman Singh Chauhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B22259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.beecrowd.com.br/judge/en/profile/776723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/5/2023 12:06:36</t>
   </si>
   <si>
     <t xml:space="preserve">https://beecrowd.com.br/judge/en/profile/776556</t>
@@ -832,7 +817,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,47 +1261,47 @@
         <v>94</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
+      <c r="F22" s="3" t="n">
+        <v>52.8361</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>52.8361</v>
+        <v>24</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>24</v>
@@ -1327,19 +1312,19 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
@@ -1347,19 +1332,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
@@ -1367,16 +1352,16 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>74</v>
@@ -1387,19 +1372,19 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
@@ -1407,19 +1392,19 @@
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
@@ -1427,19 +1412,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -1447,19 +1432,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -1467,19 +1452,19 @@
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
@@ -1487,19 +1472,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
@@ -1507,19 +1492,19 @@
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
@@ -1527,19 +1512,19 @@
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
@@ -1547,19 +1532,19 @@
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
@@ -1567,19 +1552,19 @@
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>0</v>
@@ -1587,19 +1572,19 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
@@ -1607,19 +1592,19 @@
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
@@ -1627,16 +1612,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>74</v>
@@ -1647,19 +1632,19 @@
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
@@ -1667,19 +1652,19 @@
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
@@ -1687,19 +1672,19 @@
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
@@ -1707,19 +1692,19 @@
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
@@ -1727,16 +1712,16 @@
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>15</v>
@@ -1747,19 +1732,19 @@
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
@@ -1767,99 +1752,99 @@
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>305.5437</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>305.5437</v>
+        <v>40.5648</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>40.5648</v>
+        <v>87</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
@@ -1867,16 +1852,16 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -1885,21 +1870,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
@@ -1907,63 +1892,37 @@
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
@@ -2021,20 +1980,8 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2059,41 +2006,39 @@
     <hyperlink ref="D19" r:id="rId18" display="https://www.beecrowd.com.br/judge/en/profile/776096"/>
     <hyperlink ref="D20" r:id="rId19" display="https://www.beecrowd.com.br/judge/en/profile/775833"/>
     <hyperlink ref="D21" r:id="rId20" display="https://www.beecrowd.com.br/judge/en/profile/776119"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://www.beecrowd.com.br/judge/en/profile/775779"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://www.beecrowd.com.br/judge/en/profile/612390"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://www.beecrowd.com.br/judge/en/profile/776138"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://www.beecrowd.com.br/judge/en/profile/776085"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://www.beecrowd.com.br/judge/en/profile/776143"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://www.beecrowd.com.br/judge/en/profile/776150"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://www.beecrowd.com.br/judge/en/profile/776087"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://www.beecrowd.com.br/judge/en/profile/776180"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://www.beecrowd.com.br/judge/en/profile/776183"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://www.beecrowd.com.br/judge/en/profile/776177"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://www.beecrowd.com.br/judge/en/profile/775781"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://www.beecrowd.com.br/judge/en/profile/776199"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://www.beecrowd.com.br/judge/en/profile/776208"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://www.beecrowd.com.br/judge/en/profile/776226"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://www.beecrowd.com.br/judge/en/profile/775941"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://www.beecrowd.com.br/judge/en/profile/776234"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://www.beecrowd.com.br/judge/en/profile/776067"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://www.beecrowd.com.br/judge/en/profile/776237"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://www.beecrowd.com.br/judge/en/profile/761473"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://www.beecrowd.com.br/judge/en/profile/776300"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://www.beecrowd.com.br/judge/en/profile/761288"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://www.beecrowd.com.br/judge/en/profile/776465"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://www.beecrowd.com.br/judge/en/profile/776567"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://www.beecrowd.com.br/judge/en/profile/775274"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://www.beecrowd.com.br/judge/en/profile/776600"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://www.beecrowd.com.br/judge/en/profile/776551"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://www.beecrowd.com.br/judge/en/profile/612351"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://www.beecrowd.com.br/judge/en/profile/612173"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://www.beecrowd.com.br/judge/en/profile/769955"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://www.beecrowd.com.br/judge/en/profile/776677"/>
-    <hyperlink ref="D52" r:id="rId51" display="https://www.beecrowd.com.br/judge/en/profile/776556"/>
-    <hyperlink ref="D53" r:id="rId52" display="https://www.beecrowd.com.br/judge/en/profile/776723"/>
-    <hyperlink ref="D54" r:id="rId53" display="https://beecrowd.com.br/judge/en/profile/776556"/>
-    <hyperlink ref="D55" r:id="rId54" display="https://www.beecrowd.com.br/judge/en/profile/612398"/>
-    <hyperlink ref="D56" r:id="rId55" display="https://www.beecrowd.com.br/judge/en/profile/776820"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www.beecrowd.com.br/judge/en/profile/612390"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://www.beecrowd.com.br/judge/en/profile/776138"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://www.beecrowd.com.br/judge/en/profile/776085"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://www.beecrowd.com.br/judge/en/profile/776143"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www.beecrowd.com.br/judge/en/profile/776150"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://www.beecrowd.com.br/judge/en/profile/776087"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://www.beecrowd.com.br/judge/en/profile/776180"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://www.beecrowd.com.br/judge/en/profile/776183"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://www.beecrowd.com.br/judge/en/profile/776177"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://www.beecrowd.com.br/judge/en/profile/775781"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://www.beecrowd.com.br/judge/en/profile/776199"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://www.beecrowd.com.br/judge/en/profile/776208"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://www.beecrowd.com.br/judge/en/profile/776226"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://www.beecrowd.com.br/judge/en/profile/775941"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://www.beecrowd.com.br/judge/en/profile/776234"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://www.beecrowd.com.br/judge/en/profile/776067"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://www.beecrowd.com.br/judge/en/profile/776237"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://www.beecrowd.com.br/judge/en/profile/761473"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://www.beecrowd.com.br/judge/en/profile/776300"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://www.beecrowd.com.br/judge/en/profile/761288"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://www.beecrowd.com.br/judge/en/profile/776465"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://www.beecrowd.com.br/judge/en/profile/776567"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://www.beecrowd.com.br/judge/en/profile/775274"/>
+    <hyperlink ref="D45" r:id="rId44" display="https://www.beecrowd.com.br/judge/en/profile/776600"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://www.beecrowd.com.br/judge/en/profile/776551"/>
+    <hyperlink ref="D47" r:id="rId46" display="https://www.beecrowd.com.br/judge/en/profile/612351"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.beecrowd.com.br/judge/en/profile/612173"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.beecrowd.com.br/judge/en/profile/769955"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.beecrowd.com.br/judge/en/profile/776677"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.beecrowd.com.br/judge/en/profile/776723"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://beecrowd.com.br/judge/en/profile/776556"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www.beecrowd.com.br/judge/en/profile/612398"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://www.beecrowd.com.br/judge/en/profile/776820"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491E57A-3904-4D19-949C-7029FC8725E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322AA1B-5E5D-474E-B865-089181CB3628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>Timestamp</t>
   </si>
@@ -45,26 +45,530 @@
     <t>pre_points</t>
   </si>
   <si>
-    <t>1/2/2023 20:25:51</t>
-  </si>
-  <si>
-    <t>Vivek Aggarwal</t>
-  </si>
-  <si>
-    <t>B22145</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/profile/775832</t>
-  </si>
-  <si>
     <t>CSE</t>
+  </si>
+  <si>
+    <t>Akshat Gupta</t>
+  </si>
+  <si>
+    <t>B23063</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948174</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Anamika</t>
+  </si>
+  <si>
+    <t>B23428</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/users/basic-info</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Aayush Raj</t>
+  </si>
+  <si>
+    <t>B23237</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948209</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Yashodeep</t>
+  </si>
+  <si>
+    <t>B23040</t>
+  </si>
+  <si>
+    <t>Lokesh Yadav</t>
+  </si>
+  <si>
+    <t>B23148</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948206</t>
+  </si>
+  <si>
+    <t>ISHIKA AGARWAL</t>
+  </si>
+  <si>
+    <t>B23399</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948219</t>
+  </si>
+  <si>
+    <t>MnC</t>
+  </si>
+  <si>
+    <t>Abhinav Choudhary</t>
+  </si>
+  <si>
+    <t>B23335</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948222</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>b23428</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948168</t>
+  </si>
+  <si>
+    <t>Niwesh Sah</t>
+  </si>
+  <si>
+    <t>B23277</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948211</t>
+  </si>
+  <si>
+    <t>Sohan Halder</t>
+  </si>
+  <si>
+    <t>B23297</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948242</t>
+  </si>
+  <si>
+    <t>Honey Gupta</t>
+  </si>
+  <si>
+    <t>B23204</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948267</t>
+  </si>
+  <si>
+    <t>DSE</t>
+  </si>
+  <si>
+    <t>PALAK CHOUDHARY</t>
+  </si>
+  <si>
+    <t>B23166</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948275</t>
+  </si>
+  <si>
+    <t>Ayuj Aryan</t>
+  </si>
+  <si>
+    <t>B23198</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948272</t>
+  </si>
+  <si>
+    <t>Sharath subramanya</t>
+  </si>
+  <si>
+    <t>B23230</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948287</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>B23143</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/946600</t>
+  </si>
+  <si>
+    <t>Sri Sahithi Sunkaranam</t>
+  </si>
+  <si>
+    <t>B23503</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948303</t>
+  </si>
+  <si>
+    <t>VLSI</t>
+  </si>
+  <si>
+    <t>Ayush Sawarn</t>
+  </si>
+  <si>
+    <t>B23366</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948308</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Vansh Kapoor</t>
+  </si>
+  <si>
+    <t>B23418</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948307</t>
+  </si>
+  <si>
+    <t>Saurabh Singh</t>
+  </si>
+  <si>
+    <t>B23414</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948325</t>
+  </si>
+  <si>
+    <t>Bharat Agrawal</t>
+  </si>
+  <si>
+    <t>B23341</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948324</t>
+  </si>
+  <si>
+    <t>Shubham S Padhi</t>
+  </si>
+  <si>
+    <t>B23295</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948340</t>
+  </si>
+  <si>
+    <t>Prabhat Kumar Sahu</t>
+  </si>
+  <si>
+    <t>B23281</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948332</t>
+  </si>
+  <si>
+    <t>Nishant Nehra</t>
+  </si>
+  <si>
+    <t>B23163</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948364</t>
+  </si>
+  <si>
+    <t>Akshat Jha</t>
+  </si>
+  <si>
+    <t>B23336</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948384</t>
+  </si>
+  <si>
+    <t>Molik Tyagi</t>
+  </si>
+  <si>
+    <t>B23162</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948389</t>
+  </si>
+  <si>
+    <t>Aman Kumar</t>
+  </si>
+  <si>
+    <t>B23115</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948175</t>
+  </si>
+  <si>
+    <t>Lavish Singal</t>
+  </si>
+  <si>
+    <t>B23400</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948366</t>
+  </si>
+  <si>
+    <t>Manish Kumar</t>
+  </si>
+  <si>
+    <t>B23269</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948393</t>
+  </si>
+  <si>
+    <t>ANAND PRATAP SINGH</t>
+  </si>
+  <si>
+    <t>B23116</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948406</t>
+  </si>
+  <si>
+    <t>Gyan Ratan</t>
+  </si>
+  <si>
+    <t>B23130</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942689</t>
+  </si>
+  <si>
+    <t>Davda James</t>
+  </si>
+  <si>
+    <t>B23123</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942669</t>
+  </si>
+  <si>
+    <t>Asif Hoda</t>
+  </si>
+  <si>
+    <t>B23253</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948440</t>
+  </si>
+  <si>
+    <t>Ashutosh Tandon</t>
+  </si>
+  <si>
+    <t>B23252</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948456</t>
+  </si>
+  <si>
+    <t>Lakshay garg</t>
+  </si>
+  <si>
+    <t>B23145</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948496</t>
+  </si>
+  <si>
+    <t>Avirup Ghosh</t>
+  </si>
+  <si>
+    <t>B23197</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948677</t>
+  </si>
+  <si>
+    <t>Kaustubh Srivastava</t>
+  </si>
+  <si>
+    <t>B23141</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948699</t>
+  </si>
+  <si>
+    <t>Vinamra Garg</t>
+  </si>
+  <si>
+    <t>B23302</t>
+  </si>
+  <si>
+    <t>Divyansh Jain</t>
+  </si>
+  <si>
+    <t>B23397</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942665</t>
+  </si>
+  <si>
+    <t>Dheeraj Balodi</t>
+  </si>
+  <si>
+    <t>B23261</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948716</t>
+  </si>
+  <si>
+    <t>mukul</t>
+  </si>
+  <si>
+    <t>B23451</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948721</t>
+  </si>
+  <si>
+    <t>Rishang Yadav</t>
+  </si>
+  <si>
+    <t>B23173</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948736</t>
+  </si>
+  <si>
+    <t>Pranav Raj</t>
+  </si>
+  <si>
+    <t>B23092</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948753</t>
+  </si>
+  <si>
+    <t>Bhavya Sunkari</t>
+  </si>
+  <si>
+    <t>B23367</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948755</t>
+  </si>
+  <si>
+    <t>Arani Ghosh</t>
+  </si>
+  <si>
+    <t>B23119</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942662</t>
+  </si>
+  <si>
+    <t>Lakshit Sachdeva</t>
+  </si>
+  <si>
+    <t>B23146</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948172</t>
+  </si>
+  <si>
+    <t>Gaurav Kushwaha</t>
+  </si>
+  <si>
+    <t>B23011</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948763</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Harshit Jain</t>
+  </si>
+  <si>
+    <t>B23132</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942682</t>
+  </si>
+  <si>
+    <t>Jaya Pandey</t>
+  </si>
+  <si>
+    <t>B23444</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948774</t>
+  </si>
+  <si>
+    <t>Tanishi Gupta</t>
+  </si>
+  <si>
+    <t>B23472</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948776</t>
+  </si>
+  <si>
+    <t>Achintya Dixit</t>
+  </si>
+  <si>
+    <t>B23423</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948331</t>
+  </si>
+  <si>
+    <t>Atiksh</t>
+  </si>
+  <si>
+    <t>B23196</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948302</t>
+  </si>
+  <si>
+    <t>Bhumika Gupta</t>
+  </si>
+  <si>
+    <t>B23036</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948374</t>
+  </si>
+  <si>
+    <t>Piyush Dwivedi</t>
+  </si>
+  <si>
+    <t>B23354</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948818</t>
+  </si>
+  <si>
+    <t>Kartik Verma</t>
+  </si>
+  <si>
+    <t>B23140</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/861315</t>
+  </si>
+  <si>
+    <t>Devesh Kumar</t>
+  </si>
+  <si>
+    <t>B23124</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948908</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948533</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,6 +582,27 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,23 +635,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +1003,7 @@
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,9 +1023,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45324.707187499997</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -485,7 +1033,7 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -495,9 +1043,1109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45324.709791666668</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45324.711030092592</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45324.718784722223</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45324.718935185185</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45324.72215277778</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45324.722349537034</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45324.724189814813</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45324.749571759261</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45324.762615740743</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45324.772581018522</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45324.779907407406</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45324.787997685184</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45324.794027777774</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45324.812048611115</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45324.813148148147</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45324.821157407408</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45324.824907407405</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45324.82508101852</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45324.833067129628</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45324.833090277774</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45324.842407407406</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>45324.860763888886</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>45324.871782407405</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>45324.902789351851</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>45324.906469907408</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>45324.910902777781</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>45324.919432870367</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45324.919942129629</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>45324.949560185189</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>45324.950972222221</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45324.957627314812</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45324.96533564815</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>45324.986342592594</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>45353.039583333331</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>45353.346712962964</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>45353.413414351853</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>45353.428831018522</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>45353.431064814817</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>45353.455393518518</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>45353.485196759262</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>45353.530590277776</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>45353.57371527778</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>45353.578877314816</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>45353.592812499999</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45353.616481481484</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>45353.633703703701</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45353.690208333333</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45353.738726851851</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45353.738819444443</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>45353.784641203703</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>45353.786631944444</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>45353.80127314815</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45353.826689814814</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45353.9299537037</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45353.941574074073</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D39" r:id="rId1" xr:uid="{C3B58940-577B-4815-8BA9-3E50488CB1C8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322AA1B-5E5D-474E-B865-089181CB3628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898DE0-3F1D-4CD6-B02A-75C4F144FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="178">
   <si>
     <t>Timestamp</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Anamika</t>
-  </si>
-  <si>
-    <t>B23428</t>
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/users/basic-info</t>
@@ -987,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,19 +1042,19 @@
     </row>
     <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45324.709791666668</v>
+        <v>45324.711030092592</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1065,19 +1062,19 @@
     </row>
     <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45324.711030092592</v>
+        <v>45324.718784722223</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1085,19 +1082,19 @@
     </row>
     <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45324.718784722223</v>
+        <v>45324.718935185185</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1105,19 +1102,19 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45324.718935185185</v>
+        <v>45324.72215277778</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1125,19 +1122,19 @@
     </row>
     <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>45324.72215277778</v>
+        <v>45324.722349537034</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1145,19 +1142,19 @@
     </row>
     <row r="8" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45324.722349537034</v>
+        <v>45324.724189814813</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1165,19 +1162,19 @@
     </row>
     <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45324.724189814813</v>
+        <v>45324.749571759261</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1185,19 +1182,19 @@
     </row>
     <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45324.749571759261</v>
+        <v>45324.762615740743</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1205,19 +1202,19 @@
     </row>
     <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45324.762615740743</v>
+        <v>45324.772581018522</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1225,19 +1222,19 @@
     </row>
     <row r="12" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45324.772581018522</v>
+        <v>45324.779907407406</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1245,19 +1242,19 @@
     </row>
     <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45324.779907407406</v>
+        <v>45324.787997685184</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1265,19 +1262,19 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45324.787997685184</v>
+        <v>45324.794027777774</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1285,19 +1282,19 @@
     </row>
     <row r="15" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45324.794027777774</v>
+        <v>45324.812048611115</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1305,19 +1302,19 @@
     </row>
     <row r="16" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45324.812048611115</v>
+        <v>45324.813148148147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1325,19 +1322,19 @@
     </row>
     <row r="17" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>45324.813148148147</v>
+        <v>45324.821157407408</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1345,19 +1342,19 @@
     </row>
     <row r="18" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>45324.821157407408</v>
+        <v>45324.824907407405</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1365,19 +1362,19 @@
     </row>
     <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>45324.824907407405</v>
+        <v>45324.82508101852</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1385,19 +1382,19 @@
     </row>
     <row r="20" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45324.82508101852</v>
+        <v>45324.833067129628</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1405,19 +1402,19 @@
     </row>
     <row r="21" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45324.833067129628</v>
+        <v>45324.833090277774</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1425,19 +1422,19 @@
     </row>
     <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45324.833090277774</v>
+        <v>45324.842407407406</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1445,19 +1442,19 @@
     </row>
     <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>45324.842407407406</v>
+        <v>45324.860763888886</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1465,19 +1462,19 @@
     </row>
     <row r="24" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>45324.860763888886</v>
+        <v>45324.871782407405</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1485,19 +1482,19 @@
     </row>
     <row r="25" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>45324.871782407405</v>
+        <v>45324.902789351851</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1505,19 +1502,19 @@
     </row>
     <row r="26" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>45324.902789351851</v>
+        <v>45324.906469907408</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1525,16 +1522,16 @@
     </row>
     <row r="27" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>45324.906469907408</v>
+        <v>45324.910902777781</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1545,19 +1542,19 @@
     </row>
     <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>45324.910902777781</v>
+        <v>45324.919432870367</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1565,19 +1562,19 @@
     </row>
     <row r="29" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>45324.919432870367</v>
+        <v>45324.919942129629</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1585,19 +1582,19 @@
     </row>
     <row r="30" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>45324.919942129629</v>
+        <v>45324.949560185189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1605,16 +1602,16 @@
     </row>
     <row r="31" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>45324.949560185189</v>
+        <v>45324.950972222221</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1625,16 +1622,16 @@
     </row>
     <row r="32" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>45324.950972222221</v>
+        <v>45324.957627314812</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -1645,19 +1642,19 @@
     </row>
     <row r="33" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>45324.957627314812</v>
+        <v>45324.96533564815</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1665,19 +1662,19 @@
     </row>
     <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>45324.96533564815</v>
+        <v>45324.986342592594</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1685,19 +1682,19 @@
     </row>
     <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>45324.986342592594</v>
+        <v>45353.039583333331</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1705,19 +1702,19 @@
     </row>
     <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>45353.039583333331</v>
+        <v>45353.346712962964</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1725,59 +1722,59 @@
     </row>
     <row r="37" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>45353.346712962964</v>
+        <v>45353.413414351853</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>45353.413414351853</v>
+        <v>45353.428831018522</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>45353.428831018522</v>
+        <v>45353.431064814817</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>178</v>
+        <v>123</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1785,19 +1782,19 @@
     </row>
     <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>45353.431064814817</v>
+        <v>45353.455393518518</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1805,19 +1802,19 @@
     </row>
     <row r="41" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>45353.455393518518</v>
+        <v>45353.485196759262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1825,19 +1822,19 @@
     </row>
     <row r="42" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>45353.485196759262</v>
+        <v>45353.530590277776</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1845,19 +1842,19 @@
     </row>
     <row r="43" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>45353.530590277776</v>
+        <v>45353.57371527778</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1865,19 +1862,19 @@
     </row>
     <row r="44" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>45353.57371527778</v>
+        <v>45353.578877314816</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1885,19 +1882,19 @@
     </row>
     <row r="45" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>45353.578877314816</v>
+        <v>45353.592812499999</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1905,16 +1902,16 @@
     </row>
     <row r="46" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>45353.592812499999</v>
+        <v>45353.616481481484</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -1925,19 +1922,19 @@
     </row>
     <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>45353.616481481484</v>
+        <v>45353.633703703701</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1945,19 +1942,19 @@
     </row>
     <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>45353.633703703701</v>
+        <v>45353.690208333333</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1965,19 +1962,19 @@
     </row>
     <row r="49" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>45353.690208333333</v>
+        <v>45353.738726851851</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1985,19 +1982,19 @@
     </row>
     <row r="50" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>45353.738726851851</v>
+        <v>45353.738819444443</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2005,19 +2002,19 @@
     </row>
     <row r="51" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>45353.738819444443</v>
+        <v>45353.784641203703</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2025,19 +2022,19 @@
     </row>
     <row r="52" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>45353.784641203703</v>
+        <v>45353.786631944444</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2045,19 +2042,19 @@
     </row>
     <row r="53" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>45353.786631944444</v>
+        <v>45353.80127314815</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2065,19 +2062,19 @@
     </row>
     <row r="54" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>45353.80127314815</v>
+        <v>45353.826689814814</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2085,19 +2082,19 @@
     </row>
     <row r="55" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>45353.826689814814</v>
+        <v>45353.9299537037</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2105,16 +2102,16 @@
     </row>
     <row r="56" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>45353.9299537037</v>
+        <v>45353.941574074073</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -2123,29 +2120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>45353.941574074073</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{C3B58940-577B-4815-8BA9-3E50488CB1C8}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{7607FA9E-E50F-41DD-BAAA-97BDE6DA1C20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA898DE0-3F1D-4CD6-B02A-75C4F144FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF7391-0F96-46A9-BA68-2F75AD194875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>Timestamp</t>
   </si>
@@ -559,6 +559,108 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/948533</t>
+  </si>
+  <si>
+    <t>Sachin Pant</t>
+  </si>
+  <si>
+    <t>B23229</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948971</t>
+  </si>
+  <si>
+    <t>ADITYA TAYAL</t>
+  </si>
+  <si>
+    <t>B23243</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948984</t>
+  </si>
+  <si>
+    <t>Nitin chaurasiya</t>
+  </si>
+  <si>
+    <t>B23220</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948196</t>
+  </si>
+  <si>
+    <t>Nitin Chaurasiya</t>
+  </si>
+  <si>
+    <t>Harshit Kumar Singh</t>
+  </si>
+  <si>
+    <t>B23133</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949109</t>
+  </si>
+  <si>
+    <t>Manya Gupta</t>
+  </si>
+  <si>
+    <t>B23154</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949111</t>
+  </si>
+  <si>
+    <t>Pranab Ray</t>
+  </si>
+  <si>
+    <t>B23169</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/942674</t>
+  </si>
+  <si>
+    <t>Shubhankit Singh</t>
+  </si>
+  <si>
+    <t>B23387</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948383</t>
+  </si>
+  <si>
+    <t>Aaryan Tyagi</t>
+  </si>
+  <si>
+    <t>B23420</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949129</t>
+  </si>
+  <si>
+    <t>Ansh Attre</t>
+  </si>
+  <si>
+    <t>b23191</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948707</t>
+  </si>
+  <si>
+    <t>Arpita Kumari</t>
+  </si>
+  <si>
+    <t>B23249</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949137</t>
+  </si>
+  <si>
+    <t>Arka</t>
+  </si>
+  <si>
+    <t>B23120</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948169</t>
   </si>
 </sst>
 </file>
@@ -984,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,9 +2222,271 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45384.081643518519</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45384.101875</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45384.167141203703</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45384.188750000001</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45384.424675925926</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45384.440335648149</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45384.446770833332</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45384.453483796293</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45384.469606481478</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45384.486840277779</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>45384.522835648146</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>45384.52925925926</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>45384.53224537037</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" xr:uid="{7607FA9E-E50F-41DD-BAAA-97BDE6DA1C20}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{B480752E-910B-4413-A2DB-433656109DB0}"/>
+    <hyperlink ref="D62" r:id="rId2" xr:uid="{46C1AD48-F783-4963-B27F-E5F7A61FF07D}"/>
+    <hyperlink ref="D66" r:id="rId3" xr:uid="{86D75370-1B22-4024-8212-AA06EEB38C6E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF7391-0F96-46A9-BA68-2F75AD194875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8758193-F1FB-4D40-8A51-49ED44844D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
   <si>
     <t>Timestamp</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Anamika</t>
   </si>
   <si>
-    <t>https://www.beecrowd.com.br/judge/en/users/basic-info</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>EE</t>
   </si>
   <si>
-    <t>Yashodeep</t>
-  </si>
-  <si>
-    <t>B23040</t>
-  </si>
-  <si>
     <t>Lokesh Yadav</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/948196</t>
-  </si>
-  <si>
-    <t>Nitin Chaurasiya</t>
   </si>
   <si>
     <t>Harshit Kumar Singh</t>
@@ -1086,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,16 +1135,16 @@
         <v>45324.711030092592</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1164,19 +1152,19 @@
     </row>
     <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45324.718784722223</v>
+        <v>45324.718935185185</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1184,7 +1172,7 @@
     </row>
     <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>45324.718935185185</v>
+        <v>45324.72215277778</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1196,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1204,19 +1192,19 @@
     </row>
     <row r="6" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>45324.72215277778</v>
+        <v>45324.722349537034</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1224,10 +1212,10 @@
     </row>
     <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>45324.722349537034</v>
+        <v>45324.724189814813</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -1236,7 +1224,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1244,10 +1232,10 @@
     </row>
     <row r="8" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45324.724189814813</v>
+        <v>45324.749571759261</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -1256,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1264,7 +1252,7 @@
     </row>
     <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>45324.749571759261</v>
+        <v>45324.762615740743</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>
@@ -1276,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1284,7 +1272,7 @@
     </row>
     <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45324.762615740743</v>
+        <v>45324.772581018522</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -1296,7 +1284,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1304,19 +1292,19 @@
     </row>
     <row r="11" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>45324.772581018522</v>
+        <v>45324.779907407406</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1324,7 +1312,7 @@
     </row>
     <row r="12" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45324.779907407406</v>
+        <v>45324.787997685184</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -1336,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1344,7 +1332,7 @@
     </row>
     <row r="13" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45324.787997685184</v>
+        <v>45324.794027777774</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>46</v>
@@ -1356,7 +1344,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1364,19 +1352,19 @@
     </row>
     <row r="14" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45324.794027777774</v>
+        <v>45324.812048611115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1384,19 +1372,19 @@
     </row>
     <row r="15" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45324.812048611115</v>
+        <v>45324.813148148147</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1404,7 +1392,7 @@
     </row>
     <row r="16" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45324.813148148147</v>
+        <v>45324.821157407408</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>52</v>
@@ -1416,7 +1404,7 @@
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1424,19 +1412,19 @@
     </row>
     <row r="17" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>45324.821157407408</v>
+        <v>45324.824907407405</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1444,19 +1432,19 @@
     </row>
     <row r="18" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>45324.824907407405</v>
+        <v>45324.82508101852</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1464,7 +1452,7 @@
     </row>
     <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>45324.82508101852</v>
+        <v>45324.833067129628</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>63</v>
@@ -1476,7 +1464,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1484,7 +1472,7 @@
     </row>
     <row r="20" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45324.833067129628</v>
+        <v>45324.833090277774</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>66</v>
@@ -1496,7 +1484,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1504,7 +1492,7 @@
     </row>
     <row r="21" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45324.833090277774</v>
+        <v>45324.842407407406</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>69</v>
@@ -1516,7 +1504,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1524,7 +1512,7 @@
     </row>
     <row r="22" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45324.842407407406</v>
+        <v>45324.860763888886</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>72</v>
@@ -1536,7 +1524,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1544,7 +1532,7 @@
     </row>
     <row r="23" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>45324.860763888886</v>
+        <v>45324.871782407405</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>75</v>
@@ -1556,7 +1544,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1564,7 +1552,7 @@
     </row>
     <row r="24" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>45324.871782407405</v>
+        <v>45324.902789351851</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>78</v>
@@ -1576,7 +1564,7 @@
         <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1584,7 +1572,7 @@
     </row>
     <row r="25" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>45324.902789351851</v>
+        <v>45324.906469907408</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>81</v>
@@ -1596,7 +1584,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1604,7 +1592,7 @@
     </row>
     <row r="26" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>45324.906469907408</v>
+        <v>45324.910902777781</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>84</v>
@@ -1624,7 +1612,7 @@
     </row>
     <row r="27" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>45324.910902777781</v>
+        <v>45324.919432870367</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>87</v>
@@ -1636,7 +1624,7 @@
         <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1644,7 +1632,7 @@
     </row>
     <row r="28" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>45324.919432870367</v>
+        <v>45324.919942129629</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>90</v>
@@ -1656,7 +1644,7 @@
         <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1664,7 +1652,7 @@
     </row>
     <row r="29" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>45324.919942129629</v>
+        <v>45324.949560185189</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>93</v>
@@ -1676,7 +1664,7 @@
         <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1684,7 +1672,7 @@
     </row>
     <row r="30" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>45324.949560185189</v>
+        <v>45324.950972222221</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>96</v>
@@ -1704,7 +1692,7 @@
     </row>
     <row r="31" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>45324.950972222221</v>
+        <v>45324.957627314812</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>99</v>
@@ -1724,7 +1712,7 @@
     </row>
     <row r="32" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>45324.957627314812</v>
+        <v>45324.96533564815</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>102</v>
@@ -1736,7 +1724,7 @@
         <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1744,7 +1732,7 @@
     </row>
     <row r="33" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>45324.96533564815</v>
+        <v>45324.986342592594</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>105</v>
@@ -1756,7 +1744,7 @@
         <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1764,7 +1752,7 @@
     </row>
     <row r="34" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>45324.986342592594</v>
+        <v>45353.039583333331</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>108</v>
@@ -1776,7 +1764,7 @@
         <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1784,7 +1772,7 @@
     </row>
     <row r="35" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>45353.039583333331</v>
+        <v>45353.346712962964</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>111</v>
@@ -1796,7 +1784,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1804,7 +1792,7 @@
     </row>
     <row r="36" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>45353.346712962964</v>
+        <v>45353.413414351853</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>114</v>
@@ -1816,15 +1804,15 @@
         <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>45353.413414351853</v>
+        <v>45353.428831018522</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>117</v>
@@ -1832,31 +1820,31 @@
       <c r="C37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>45353.431064814817</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>45353.428831018522</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1864,7 +1852,7 @@
     </row>
     <row r="39" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>45353.431064814817</v>
+        <v>45353.455393518518</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>122</v>
@@ -1876,7 +1864,7 @@
         <v>124</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1884,7 +1872,7 @@
     </row>
     <row r="40" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>45353.455393518518</v>
+        <v>45353.485196759262</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
@@ -1896,7 +1884,7 @@
         <v>127</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1904,7 +1892,7 @@
     </row>
     <row r="41" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>45353.485196759262</v>
+        <v>45353.530590277776</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>128</v>
@@ -1916,7 +1904,7 @@
         <v>130</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1924,7 +1912,7 @@
     </row>
     <row r="42" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>45353.530590277776</v>
+        <v>45353.57371527778</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>131</v>
@@ -1936,7 +1924,7 @@
         <v>133</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1944,7 +1932,7 @@
     </row>
     <row r="43" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>45353.57371527778</v>
+        <v>45353.578877314816</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>134</v>
@@ -1956,7 +1944,7 @@
         <v>136</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1964,7 +1952,7 @@
     </row>
     <row r="44" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>45353.578877314816</v>
+        <v>45353.592812499999</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>137</v>
@@ -1976,7 +1964,7 @@
         <v>139</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1984,7 +1972,7 @@
     </row>
     <row r="45" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>45353.592812499999</v>
+        <v>45353.616481481484</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>140</v>
@@ -2004,7 +1992,7 @@
     </row>
     <row r="46" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>45353.616481481484</v>
+        <v>45353.633703703701</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>143</v>
@@ -2016,7 +2004,7 @@
         <v>145</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2024,19 +2012,19 @@
     </row>
     <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>45353.633703703701</v>
+        <v>45353.690208333333</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2044,7 +2032,7 @@
     </row>
     <row r="48" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>45353.690208333333</v>
+        <v>45353.738726851851</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>150</v>
@@ -2056,7 +2044,7 @@
         <v>152</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2064,7 +2052,7 @@
     </row>
     <row r="49" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>45353.738726851851</v>
+        <v>45353.738819444443</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>153</v>
@@ -2076,7 +2064,7 @@
         <v>155</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2084,7 +2072,7 @@
     </row>
     <row r="50" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>45353.738819444443</v>
+        <v>45353.784641203703</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>156</v>
@@ -2096,7 +2084,7 @@
         <v>158</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2104,7 +2092,7 @@
     </row>
     <row r="51" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>45353.784641203703</v>
+        <v>45353.786631944444</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>159</v>
@@ -2116,7 +2104,7 @@
         <v>161</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2124,7 +2112,7 @@
     </row>
     <row r="52" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>45353.786631944444</v>
+        <v>45353.80127314815</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>162</v>
@@ -2136,7 +2124,7 @@
         <v>164</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2144,7 +2132,7 @@
     </row>
     <row r="53" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>45353.80127314815</v>
+        <v>45353.826689814814</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>165</v>
@@ -2156,7 +2144,7 @@
         <v>167</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2164,7 +2152,7 @@
     </row>
     <row r="54" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>45353.826689814814</v>
+        <v>45353.9299537037</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>168</v>
@@ -2176,7 +2164,7 @@
         <v>170</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2184,7 +2172,7 @@
     </row>
     <row r="55" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>45353.9299537037</v>
+        <v>45353.941574074073</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>171</v>
@@ -2204,19 +2192,19 @@
     </row>
     <row r="56" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>45353.941574074073</v>
+        <v>45384.081643518519</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2224,7 +2212,7 @@
     </row>
     <row r="57" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>45384.081643518519</v>
+        <v>45384.101875</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>178</v>
@@ -2236,7 +2224,7 @@
         <v>180</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2244,7 +2232,7 @@
     </row>
     <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>45384.101875</v>
+        <v>45384.167141203703</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -2256,7 +2244,7 @@
         <v>183</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2264,7 +2252,7 @@
     </row>
     <row r="59" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>45384.167141203703</v>
+        <v>45384.424675925926</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>184</v>
@@ -2276,27 +2264,27 @@
         <v>186</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>45384.188750000001</v>
+        <v>45384.440335648149</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2304,16 +2292,16 @@
     </row>
     <row r="61" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>45384.424675925926</v>
+        <v>45384.446770833332</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -2322,18 +2310,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>45384.440335648149</v>
+        <v>45384.453483796293</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -2344,39 +2332,39 @@
     </row>
     <row r="63" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>45384.446770833332</v>
+        <v>45384.469606481478</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45384.486840277779</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>45384.453483796293</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2384,39 +2372,39 @@
     </row>
     <row r="65" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>45384.469606481478</v>
+        <v>45384.522835648146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>45384.486840277779</v>
+        <v>45384.52925925926</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2424,69 +2412,29 @@
     </row>
     <row r="67" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>45384.522835648146</v>
+        <v>45384.53224537037</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
-        <v>45384.52925925926</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
-        <v>45384.53224537037</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" xr:uid="{B480752E-910B-4413-A2DB-433656109DB0}"/>
-    <hyperlink ref="D62" r:id="rId2" xr:uid="{46C1AD48-F783-4963-B27F-E5F7A61FF07D}"/>
-    <hyperlink ref="D66" r:id="rId3" xr:uid="{86D75370-1B22-4024-8212-AA06EEB38C6E}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{2B270AA7-2330-4EF0-8B12-EB0363F1269E}"/>
+    <hyperlink ref="D60" r:id="rId2" xr:uid="{9D7BA6BC-A239-4F60-B04A-292931D4EE4B}"/>
+    <hyperlink ref="D64" r:id="rId3" xr:uid="{8C649520-1B7D-4546-9A77-4118A4995547}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8758193-F1FB-4D40-8A51-49ED44844D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE9631-BF60-4A8D-8D1A-FE0A14ECFB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1074,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,59 +2312,59 @@
     </row>
     <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>45384.453483796293</v>
+        <v>45384.469606481478</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>45384.469606481478</v>
+        <v>45384.486840277779</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>45384.486840277779</v>
+        <v>45384.522835648146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2372,19 +2372,19 @@
     </row>
     <row r="65" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>45384.522835648146</v>
+        <v>45384.52925925926</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2392,49 +2392,29 @@
     </row>
     <row r="66" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>45384.52925925926</v>
+        <v>45384.53224537037</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
-        <v>45384.53224537037</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D37" r:id="rId1" xr:uid="{2B270AA7-2330-4EF0-8B12-EB0363F1269E}"/>
-    <hyperlink ref="D60" r:id="rId2" xr:uid="{9D7BA6BC-A239-4F60-B04A-292931D4EE4B}"/>
-    <hyperlink ref="D64" r:id="rId3" xr:uid="{8C649520-1B7D-4546-9A77-4118A4995547}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{52F94108-49CD-4659-B055-BDF036ACE0FB}"/>
+    <hyperlink ref="D60" r:id="rId2" xr:uid="{C9054C7F-66A4-43C6-A948-7909DB20E7A1}"/>
+    <hyperlink ref="D63" r:id="rId3" xr:uid="{26B1E5B6-D56D-4D71-AC0A-98EF0A7D6D6A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE9631-BF60-4A8D-8D1A-FE0A14ECFB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEFDAC-6E10-401C-8287-8F6AAA696CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="211">
   <si>
     <t>Timestamp</t>
   </si>
@@ -649,6 +649,15 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/948169</t>
+  </si>
+  <si>
+    <t>ROHIT</t>
+  </si>
+  <si>
+    <t>B23175</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948713</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,11 +2419,174 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>45384.440335648149</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>45384.446770833332</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>45384.469606481478</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>45384.486840277779</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>45384.522835648146</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>45384.52925925926</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>45384.53224537037</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>45384.410578703704</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D37" r:id="rId1" xr:uid="{52F94108-49CD-4659-B055-BDF036ACE0FB}"/>
     <hyperlink ref="D60" r:id="rId2" xr:uid="{C9054C7F-66A4-43C6-A948-7909DB20E7A1}"/>
     <hyperlink ref="D63" r:id="rId3" xr:uid="{26B1E5B6-D56D-4D71-AC0A-98EF0A7D6D6A}"/>
+    <hyperlink ref="D67" r:id="rId4" xr:uid="{BE1C90D8-D5FF-4454-BD7B-1BC1A5215A16}"/>
+    <hyperlink ref="D70" r:id="rId5" xr:uid="{EBF21B4B-E576-4C80-BD60-9DC9FBE0358E}"/>
+    <hyperlink ref="D74" r:id="rId6" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{69FCD4DA-74C8-4302-B186-C35C5E7B9B86}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEFDAC-6E10-401C-8287-8F6AAA696CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6A69B-1414-4EA0-AE1B-B86FE744EE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Timestamp</t>
   </si>
@@ -78,6 +78,12 @@
     <t>EE</t>
   </si>
   <si>
+    <t>Yashodeep</t>
+  </si>
+  <si>
+    <t>B23040</t>
+  </si>
+  <si>
     <t>Lokesh Yadav</t>
   </si>
   <si>
@@ -658,6 +664,54 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/948713</t>
+  </si>
+  <si>
+    <t>Akshit Bhola</t>
+  </si>
+  <si>
+    <t>B23112</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949151</t>
+  </si>
+  <si>
+    <t>Adit Raj</t>
+  </si>
+  <si>
+    <t>B23480</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949154</t>
+  </si>
+  <si>
+    <t>Alok Kumar Yadav</t>
+  </si>
+  <si>
+    <t>B23426</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949149</t>
+  </si>
+  <si>
+    <t>Rudraksh Rajendra Lande</t>
+  </si>
+  <si>
+    <t>B23176</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949172</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948216</t>
+  </si>
+  <si>
+    <t>Mohit Kumar</t>
+  </si>
+  <si>
+    <t>B23273</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948171</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,13 +1218,13 @@
         <v>45324.718935185185</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -1184,16 +1238,16 @@
         <v>45324.72215277778</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1204,16 +1258,16 @@
         <v>45324.722349537034</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1227,10 +1281,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
@@ -1244,13 +1298,13 @@
         <v>45324.749571759261</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1264,13 +1318,13 @@
         <v>45324.762615740743</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -1284,16 +1338,16 @@
         <v>45324.772581018522</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1304,13 +1358,13 @@
         <v>45324.779907407406</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1324,16 +1378,16 @@
         <v>45324.787997685184</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1344,16 +1398,16 @@
         <v>45324.794027777774</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1384,13 +1438,13 @@
         <v>45324.813148148147</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1404,16 +1458,16 @@
         <v>45324.821157407408</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1424,16 +1478,16 @@
         <v>45324.824907407405</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1444,16 +1498,16 @@
         <v>45324.82508101852</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1464,16 +1518,16 @@
         <v>45324.833067129628</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1484,16 +1538,16 @@
         <v>45324.833090277774</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1504,13 +1558,13 @@
         <v>45324.842407407406</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -1524,13 +1578,13 @@
         <v>45324.860763888886</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1544,13 +1598,13 @@
         <v>45324.871782407405</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1564,16 +1618,16 @@
         <v>45324.902789351851</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1584,13 +1638,13 @@
         <v>45324.906469907408</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1604,13 +1658,13 @@
         <v>45324.910902777781</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1624,16 +1678,16 @@
         <v>45324.919432870367</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1644,13 +1698,13 @@
         <v>45324.919942129629</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>16</v>
@@ -1664,13 +1718,13 @@
         <v>45324.949560185189</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1684,13 +1738,13 @@
         <v>45324.950972222221</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1704,13 +1758,13 @@
         <v>45324.957627314812</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1724,13 +1778,13 @@
         <v>45324.96533564815</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>16</v>
@@ -1744,13 +1798,13 @@
         <v>45324.986342592594</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
@@ -1764,13 +1818,13 @@
         <v>45353.039583333331</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -1784,16 +1838,16 @@
         <v>45353.346712962964</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1804,13 +1858,13 @@
         <v>45353.413414351853</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -1824,13 +1878,13 @@
         <v>45353.428831018522</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
@@ -1844,16 +1898,16 @@
         <v>45353.431064814817</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1864,13 +1918,13 @@
         <v>45353.455393518518</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -1884,13 +1938,13 @@
         <v>45353.485196759262</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>12</v>
@@ -1904,13 +1958,13 @@
         <v>45353.530590277776</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -1924,13 +1978,13 @@
         <v>45353.57371527778</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
@@ -1944,16 +1998,16 @@
         <v>45353.578877314816</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1964,13 +2018,13 @@
         <v>45353.592812499999</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -1984,13 +2038,13 @@
         <v>45353.616481481484</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2004,16 +2058,16 @@
         <v>45353.633703703701</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2024,13 +2078,13 @@
         <v>45353.690208333333</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2044,13 +2098,13 @@
         <v>45353.738726851851</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>12</v>
@@ -2064,13 +2118,13 @@
         <v>45353.738819444443</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -2084,13 +2138,13 @@
         <v>45353.784641203703</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>12</v>
@@ -2104,16 +2158,16 @@
         <v>45353.786631944444</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2124,13 +2178,13 @@
         <v>45353.80127314815</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -2144,16 +2198,16 @@
         <v>45353.826689814814</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2164,13 +2218,13 @@
         <v>45353.9299537037</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -2184,13 +2238,13 @@
         <v>45353.941574074073</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -2204,16 +2258,16 @@
         <v>45384.081643518519</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2224,13 +2278,13 @@
         <v>45384.101875</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>16</v>
@@ -2244,16 +2298,16 @@
         <v>45384.167141203703</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2264,13 +2318,13 @@
         <v>45384.424675925926</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -2284,13 +2338,13 @@
         <v>45384.440335648149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -2304,13 +2358,13 @@
         <v>45384.446770833332</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -2324,16 +2378,16 @@
         <v>45384.469606481478</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2344,13 +2398,13 @@
         <v>45384.486840277779</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>12</v>
@@ -2364,16 +2418,16 @@
         <v>45384.522835648146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2384,13 +2438,13 @@
         <v>45384.52925925926</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>16</v>
@@ -2404,13 +2458,13 @@
         <v>45384.53224537037</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -2424,13 +2478,13 @@
         <v>45384.440335648149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -2444,13 +2498,13 @@
         <v>45384.446770833332</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>6</v>
@@ -2464,16 +2518,16 @@
         <v>45384.469606481478</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2484,13 +2538,13 @@
         <v>45384.486840277779</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>12</v>
@@ -2504,16 +2558,16 @@
         <v>45384.522835648146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2524,13 +2578,13 @@
         <v>45384.52925925926</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
@@ -2544,13 +2598,13 @@
         <v>45384.53224537037</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>6</v>
@@ -2564,18 +2618,158 @@
         <v>45384.410578703704</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>45384.587546296294</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>45384.592106481483</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>45384.592187499999</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>45384.593553240738</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>45384.618969907409</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>45384.623391203706</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>45384.633993055555</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
         <v>0</v>
       </c>
     </row>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6A69B-1414-4EA0-AE1B-B86FE744EE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC490AF-03D1-47E3-81B3-DFFA8F531095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="232">
   <si>
     <t>Timestamp</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/948171</t>
+  </si>
+  <si>
+    <t>Rana Rohitashav Gehloch</t>
+  </si>
+  <si>
+    <t>B23094</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949183</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75:F81"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45384.522835648146</v>
       </c>
@@ -2563,7 +2572,7 @@
       <c r="C71" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -2770,6 +2779,66 @@
         <v>16</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>45384.645995370367</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>45384.646585648145</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>45384.649305555555</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84">
         <v>0</v>
       </c>
     </row>
@@ -2781,6 +2850,7 @@
     <hyperlink ref="D67" r:id="rId4" xr:uid="{BE1C90D8-D5FF-4454-BD7B-1BC1A5215A16}"/>
     <hyperlink ref="D70" r:id="rId5" xr:uid="{EBF21B4B-E576-4C80-BD60-9DC9FBE0358E}"/>
     <hyperlink ref="D74" r:id="rId6" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{69FCD4DA-74C8-4302-B186-C35C5E7B9B86}"/>
+    <hyperlink ref="D71" r:id="rId7" xr:uid="{4983FBAF-382E-4485-9216-C432B7504576}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC490AF-03D1-47E3-81B3-DFFA8F531095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE411F4-49D7-4EBD-99AE-075CD44CAEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="238">
   <si>
     <t>Timestamp</t>
   </si>
@@ -721,6 +721,24 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/949183</t>
+  </si>
+  <si>
+    <t>Vivek Choudhary</t>
+  </si>
+  <si>
+    <t>B23184</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949173</t>
+  </si>
+  <si>
+    <t>Priyanshu prajapati</t>
+  </si>
+  <si>
+    <t>B23455</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949197</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,6 +2860,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>45384.653368055559</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>45384.65730324074</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>45384.657800925925</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D37" r:id="rId1" xr:uid="{52F94108-49CD-4659-B055-BDF036ACE0FB}"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE411F4-49D7-4EBD-99AE-075CD44CAEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2320BB0-C9A9-4259-8405-199A59800CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="244">
   <si>
     <t>Timestamp</t>
   </si>
@@ -739,6 +739,24 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/949197</t>
+  </si>
+  <si>
+    <t>Md Farhan</t>
+  </si>
+  <si>
+    <t>B23155</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949181</t>
+  </si>
+  <si>
+    <t>Saatvik Pareek</t>
+  </si>
+  <si>
+    <t>B23411</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949144</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,6 +2938,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>45384.65997685185</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>45384.660497685189</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D37" r:id="rId1" xr:uid="{52F94108-49CD-4659-B055-BDF036ACE0FB}"/>
@@ -2929,6 +2987,7 @@
     <hyperlink ref="D70" r:id="rId5" xr:uid="{EBF21B4B-E576-4C80-BD60-9DC9FBE0358E}"/>
     <hyperlink ref="D74" r:id="rId6" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{69FCD4DA-74C8-4302-B186-C35C5E7B9B86}"/>
     <hyperlink ref="D71" r:id="rId7" xr:uid="{4983FBAF-382E-4485-9216-C432B7504576}"/>
+    <hyperlink ref="D88" r:id="rId8" xr:uid="{5198B1DE-1096-4B36-B8D0-64107DA65DF3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="260">
   <si>
     <t>Timestamp</t>
   </si>
@@ -782,6 +782,15 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/949180.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhuvanesh Ganta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B23485 </t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948316</t>
   </si>
 </sst>
 </file>
@@ -792,7 +801,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="mm-dd-yyyy h:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -839,6 +848,11 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -918,6 +932,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3075,6 +3092,26 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="9">
+        <v>45326.75380677084</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -3178,7 +3215,9 @@
     <hyperlink r:id="rId99" ref="E96"/>
     <hyperlink r:id="rId100" ref="D97"/>
     <hyperlink r:id="rId101" ref="E97"/>
+    <hyperlink r:id="rId102" ref="D98"/>
+    <hyperlink r:id="rId103" ref="E98"/>
   </hyperlinks>
-  <drawing r:id="rId102"/>
+  <drawing r:id="rId104"/>
 </worksheet>
 </file>
--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8925A6DE-1259-469A-8399-BAD5B9A2C87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B29880-8F06-4659-AEF4-057A3656CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="330">
   <si>
     <t>Timestamp</t>
   </si>
@@ -855,9 +855,6 @@
     <t>B23218</t>
   </si>
   <si>
-    <t>https://www.beecrowd.com.br/judge/en/profile/948199</t>
-  </si>
-  <si>
     <t>Bhoomi</t>
   </si>
   <si>
@@ -909,9 +906,6 @@
     <t>EP</t>
   </si>
   <si>
-    <t>Rohit kumar</t>
-  </si>
-  <si>
     <t>Risa Chaudhari</t>
   </si>
   <si>
@@ -919,6 +913,108 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/profile/949258</t>
+  </si>
+  <si>
+    <t>Jaspinder kaur</t>
+  </si>
+  <si>
+    <t>B23264</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949315</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>B23236</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949253</t>
+  </si>
+  <si>
+    <t>Rajveer Tomar</t>
+  </si>
+  <si>
+    <t>B23407</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949596</t>
+  </si>
+  <si>
+    <t>ADNAN AHMAD</t>
+  </si>
+  <si>
+    <t>B23244</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949626</t>
+  </si>
+  <si>
+    <t>Thamanna A Majeed</t>
+  </si>
+  <si>
+    <t>B23301</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949670</t>
+  </si>
+  <si>
+    <t>Priyanshu prajapati</t>
+  </si>
+  <si>
+    <t>b23455</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949197</t>
+  </si>
+  <si>
+    <t>Arnav Kulkarni</t>
+  </si>
+  <si>
+    <t>B23067</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949569</t>
+  </si>
+  <si>
+    <t>Mehak</t>
+  </si>
+  <si>
+    <t>B23157</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949803</t>
+  </si>
+  <si>
+    <t>Mohit</t>
+  </si>
+  <si>
+    <t>B23160</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949826</t>
+  </si>
+  <si>
+    <t>Rajsi Sangra</t>
+  </si>
+  <si>
+    <t>b23285</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949924</t>
+  </si>
+  <si>
+    <t>Kusum Agrawal</t>
+  </si>
+  <si>
+    <t>B23351</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/948218</t>
+  </si>
+  <si>
+    <t>BioE</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3382,19 +3478,19 @@
     </row>
     <row r="52" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45353.800694444442</v>
+        <v>45353.826388888891</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -3421,19 +3517,19 @@
     </row>
     <row r="53" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45353.826388888891</v>
+        <v>45353.929861111108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F53" s="7">
         <v>0</v>
@@ -3460,16 +3556,16 @@
     </row>
     <row r="54" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45353.929861111108</v>
+        <v>45353.940972222219</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -3499,19 +3595,19 @@
     </row>
     <row r="55" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45353.940972222219</v>
+        <v>45384.081250000003</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F55" s="7">
         <v>0</v>
@@ -3538,19 +3634,19 @@
     </row>
     <row r="56" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45384.081250000003</v>
+        <v>45384.101388888892</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F56" s="7">
         <v>0</v>
@@ -3577,19 +3673,19 @@
     </row>
     <row r="57" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>45384.101388888892</v>
+        <v>45384.166666666664</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
@@ -3616,19 +3712,19 @@
     </row>
     <row r="58" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>45384.166666666664</v>
+        <v>45384.424305555556</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F58" s="7">
         <v>0</v>
@@ -3655,16 +3751,16 @@
     </row>
     <row r="59" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>45384.424305555556</v>
+        <v>45384.44027777778</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>6</v>
@@ -3694,16 +3790,16 @@
     </row>
     <row r="60" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>45384.44027777778</v>
+        <v>45384.446527777778</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>6</v>
@@ -3733,19 +3829,19 @@
     </row>
     <row r="61" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>45384.446527777778</v>
+        <v>45384.469444444447</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -3772,19 +3868,19 @@
     </row>
     <row r="62" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>45384.469444444447</v>
+        <v>45384.486805555556</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -3811,19 +3907,19 @@
     </row>
     <row r="63" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45384.486805555556</v>
+        <v>45384.522222222222</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -3850,19 +3946,19 @@
     </row>
     <row r="64" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45384.522222222222</v>
+        <v>45384.529166666667</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -3889,19 +3985,19 @@
     </row>
     <row r="65" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45384.529166666667</v>
+        <v>45384.531944444447</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -3928,16 +4024,16 @@
     </row>
     <row r="66" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45384.531944444447</v>
+        <v>45384.44027777778</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>6</v>
@@ -3967,19 +4063,19 @@
     </row>
     <row r="67" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45384.44027777778</v>
+        <v>45384.486805555556</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F67" s="7">
         <v>0</v>
@@ -4006,19 +4102,19 @@
     </row>
     <row r="68" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45384.446527777778</v>
+        <v>45384.522222222222</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -4045,19 +4141,19 @@
     </row>
     <row r="69" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45384.469444444447</v>
+        <v>45384.410416666666</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F69" s="7">
         <v>0</v>
@@ -4084,19 +4180,19 @@
     </row>
     <row r="70" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45384.486805555556</v>
+        <v>45384.591666666667</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -4123,19 +4219,19 @@
     </row>
     <row r="71" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45384.522222222222</v>
+        <v>45384.591666666667</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -4162,19 +4258,19 @@
     </row>
     <row r="72" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45384.410416666666</v>
+        <v>45384.593055555553</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -4201,19 +4297,19 @@
     </row>
     <row r="73" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45384.587500000001</v>
+        <v>45384.618750000001</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -4240,19 +4336,19 @@
     </row>
     <row r="74" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45384.591666666667</v>
+        <v>45384.622916666667</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -4279,19 +4375,19 @@
     </row>
     <row r="75" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45384.591666666667</v>
+        <v>45384.633333333331</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -4318,19 +4414,19 @@
     </row>
     <row r="76" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45384.593055555553</v>
+        <v>45384.645833333336</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -4357,16 +4453,16 @@
     </row>
     <row r="77" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45384.618750000001</v>
+        <v>45384.652777777781</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>6</v>
@@ -4396,19 +4492,19 @@
     </row>
     <row r="78" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45384.622916666667</v>
+        <v>45384.656944444447</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -4435,19 +4531,19 @@
     </row>
     <row r="79" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45384.633333333331</v>
+        <v>45384.659722222219</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -4474,19 +4570,19 @@
     </row>
     <row r="80" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45384.645833333336</v>
+        <v>45384.660416666666</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
@@ -4513,19 +4609,19 @@
     </row>
     <row r="81" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45384.649305555555</v>
+        <v>45384.675000000003</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -4552,19 +4648,19 @@
     </row>
     <row r="82" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45384.652777777781</v>
+        <v>45384.675694444442</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -4591,19 +4687,19 @@
     </row>
     <row r="83" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45384.656944444447</v>
+        <v>45384.696527777778</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
@@ -4628,21 +4724,21 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45384.659722222219</v>
+        <v>45384.70957175926</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>237</v>
+        <v>251</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
@@ -4667,21 +4763,21 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45384.660416666666</v>
+        <v>45384.749363425923</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>240</v>
+        <v>143</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F85" s="7">
         <v>0</v>
@@ -4706,23 +4802,23 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45384.675000000003</v>
+        <v>45384.753807870373</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="7">
+        <v>57</v>
+      </c>
+      <c r="F86" s="8">
         <v>0</v>
       </c>
       <c r="G86" s="2"/>
@@ -4745,23 +4841,23 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45384.675694444442</v>
+        <v>45384.75984953704</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="8">
         <v>0</v>
       </c>
       <c r="G87" s="2"/>
@@ -4786,21 +4882,21 @@
     </row>
     <row r="88" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45384.696527777778</v>
+        <v>45384.770277777781</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="7">
+        <v>16</v>
+      </c>
+      <c r="F88" s="8">
         <v>0</v>
       </c>
       <c r="G88" s="2"/>
@@ -4825,21 +4921,21 @@
     </row>
     <row r="89" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45384.70957175926</v>
+        <v>45384.77306712963</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="7">
+        <v>12</v>
+      </c>
+      <c r="F89" s="8">
         <v>0</v>
       </c>
       <c r="G89" s="2"/>
@@ -4864,21 +4960,21 @@
     </row>
     <row r="90" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45384.749363425923</v>
+        <v>45384.793078703704</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="7">
+        <v>41</v>
+      </c>
+      <c r="F90" s="8">
         <v>0</v>
       </c>
       <c r="G90" s="2"/>
@@ -4903,19 +4999,19 @@
     </row>
     <row r="91" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45384.753807870373</v>
+        <v>45384.793356481481</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F91" s="8">
         <v>0</v>
@@ -4942,19 +5038,19 @@
     </row>
     <row r="92" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45384.75984953704</v>
+        <v>45384.803703703707</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F92" s="8">
         <v>0</v>
@@ -4981,19 +5077,19 @@
     </row>
     <row r="93" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45384.761574074073</v>
+        <v>45384.84306712963</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" s="8">
         <v>0</v>
@@ -5018,21 +5114,21 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45384.770277777781</v>
+        <v>45384.926493055558</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>261</v>
+        <v>280</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F94" s="8">
         <v>0</v>
@@ -5059,19 +5155,19 @@
     </row>
     <row r="95" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45384.77306712963</v>
+        <v>45384.934074074074</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F95" s="8">
         <v>0</v>
@@ -5098,16 +5194,16 @@
     </row>
     <row r="96" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45384.793078703704</v>
+        <v>45384.935081018521</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>41</v>
@@ -5137,19 +5233,19 @@
     </row>
     <row r="97" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45384.793356481481</v>
+        <v>45384.94021990741</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F97" s="8">
         <v>0</v>
@@ -5176,19 +5272,19 @@
     </row>
     <row r="98" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45384.803703703707</v>
+        <v>45384.953298611108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="F98" s="8">
         <v>0</v>
@@ -5215,16 +5311,16 @@
     </row>
     <row r="99" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45384.833298611113</v>
+        <v>45414.426458333335</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>41</v>
@@ -5254,16 +5350,16 @@
     </row>
     <row r="100" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45384.84306712963</v>
+        <v>45414.524039351854</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>16</v>
@@ -5293,19 +5389,19 @@
     </row>
     <row r="101" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45384.926493055558</v>
+        <v>45414.591631944444</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F101" s="8">
         <v>0</v>
@@ -5332,19 +5428,19 @@
     </row>
     <row r="102" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45384.934074074074</v>
+        <v>45414.637696759259</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F102" s="8">
         <v>0</v>
@@ -5371,19 +5467,19 @@
     </row>
     <row r="103" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45384.935081018521</v>
+        <v>45414.700115740743</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F103" s="8">
         <v>0</v>
@@ -5410,19 +5506,19 @@
     </row>
     <row r="104" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45384.94021990741</v>
+        <v>45414.772905092592</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F104" s="8">
         <v>0</v>
@@ -5449,19 +5545,19 @@
     </row>
     <row r="105" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45384.953298611108</v>
+        <v>45414.850983796299</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="F105" s="8">
         <v>0</v>
@@ -5488,16 +5584,16 @@
     </row>
     <row r="106" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45384.953958333332</v>
+        <v>45414.868692129632</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -5527,16 +5623,16 @@
     </row>
     <row r="107" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45414.003506944442</v>
+        <v>45414.876967592594</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>6</v>
@@ -5566,19 +5662,19 @@
     </row>
     <row r="108" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45414.426458333335</v>
+        <v>45414.898622685185</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F108" s="8">
         <v>0</v>
@@ -5603,13 +5699,25 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+    <row r="109" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45414.979861111111</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5630,13 +5738,25 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+    <row r="110" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45414.990636574075</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5657,13 +5777,25 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+    <row r="111" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45445.048518518517</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -28366,96 +28498,91 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D1B2B4A5-EBBC-40FA-906D-CE3965CB3B19}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{003FE36C-8B6F-48BD-96EF-C69E49DA9835}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4B99A6FE-AF3D-48B7-BAFB-E287BA59A2BD}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{892D6CE6-CB7C-4FF9-BEE9-82AA3081D145}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{D36E0D27-F475-4D68-A21D-09A7EFA9A138}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{EBF5FFFD-EC78-4F67-8346-C967DE21E690}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{CFD2EAF8-E713-4B60-BC36-4EB3B61D7E64}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{9F9A804C-93F1-4ACB-9B2D-59E7B9B36FFA}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{7C5EB1F8-BDAB-44F2-BCAF-C914ABB443E2}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{A66FBEAA-A5BF-4371-9988-AC52CBFC8576}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{A776B966-FD25-4492-901A-8D081B913198}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{869DF402-C3A7-4474-9C80-3B8676831183}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{278F62CF-4E21-4809-B768-5E5C927E0338}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{2D1938FF-5D43-4929-A903-568E9B2227CB}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{96A2D7DD-7511-4C79-B3F9-AA617EC1C8A5}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{70CC107D-FE24-4433-909B-E19D10203C8A}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{0C0B7EC5-4EE8-422C-8605-07719BF1E6A3}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{4C704176-DB06-45AC-896B-DF3519329B71}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{688E00A0-8722-4E69-B34E-9DD09BE58596}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{D6E11AB8-40B3-4D4D-8AEF-15694D04238A}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{95489A94-636F-4493-AF64-706C7970BF28}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{77C50A05-3A4D-4BBF-9F16-459E3095B509}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{DBDC7E00-0537-436A-BF51-DE37AFC2B80A}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{CB639E3D-A0D3-404E-B622-94F7EB3BB090}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{FF70156A-A3D4-41D3-A052-0A4B6CEC2FCD}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{74C98395-52E0-46C4-AB03-729476B5D95A}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{C4AD4624-D1C3-4509-91E2-D26C78FBD8F8}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{049DE611-CC1B-49B8-B016-8BA75E51426E}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{5C229DB1-2366-4E5D-B4A7-59ADE8DC4D93}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{54F8BA8C-90F7-4C14-BFB0-AD8123273A73}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{CA191F98-9F5B-4F56-9E32-5F1349FE4B10}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{9CE15F0C-0281-4EB0-8CEB-1DFFF3E91741}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{38410FAD-2A3B-4737-A6C2-1231F640169B}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{539A200F-F3E6-499B-9A25-5F45B7999269}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{18217CBE-7A4F-4D1C-A88C-6914ED69504A}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{38BAFC66-8C07-4D36-9E42-E17BC034E16E}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{F06DEAF6-D41D-46E9-B946-11D1A3C2E37D}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{4744872E-5C10-493B-A97B-24289A646D38}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{6DF52AE1-E322-4EF3-B73A-08CE2F3B0B94}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{0BB7E04E-344B-409D-9C7D-A29FE135D493}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{D0CA4C5E-7868-41E0-94A2-7BE151DB7D66}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{3411C539-5BA7-4238-8681-E32053CCBF68}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{D9650D7E-16BD-406E-B7A1-D06FD39A9822}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{DF5C303F-3164-42E4-9E14-093B62819DA7}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{A068196B-C911-432A-9EC9-85E2FB4597E1}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{CD4A1BA2-B52C-4E8E-82B1-0952BDDC68CB}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{7E825D47-0C66-4E16-B399-F2C904B5A43F}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{B76E67D1-ED49-4274-A02F-6724D1162B02}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{3F585C30-2099-41DE-A52C-FA24FE096C18}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{217A710B-D12D-486A-A1D0-083AC413347A}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{F0F5705C-CA4F-47A1-BE72-D4FB4EC07BC3}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{FE2AEFA0-0E81-4D4C-9D13-DBD4C6429D54}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{E7194B1E-C14E-4D06-9A9F-DEA5AFC39DAA}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{3516B2D6-E39A-4845-9701-B953F7A6F424}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{F209B2E3-7DBC-4D9A-9DB7-1C078B7F1B04}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{1D5C4C45-5803-4A53-BFC3-318C36232721}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{4351F462-5BAC-4AD9-AF4C-79D7450F054E}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{14B34941-D020-42F8-B73F-8AD87B55D1D4}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{A970EB92-266F-4124-9081-1F86901D7F99}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{E68F64C2-3AAF-4A49-B17C-8DA43E301AC8}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{C645F71C-7000-4ABC-9023-312938054EBD}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{AA3F4F39-4436-4407-83E4-0721CEB6618A}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{DF061DF8-34B3-4F82-998A-D680D68DFABC}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{A9713C6E-7CCD-4D86-8209-51230B54DEB5}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{87925D98-387B-449F-BD7F-31DDD6006893}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{C6141514-D91E-47E1-868A-347C7509939F}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{8A3386E0-E594-4130-9C29-D8907EC9BA2B}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{0E8408DF-CCB8-4DDA-A970-A3D7B9A9BA75}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{A3D33A4D-1371-4B2A-A6AB-3A332E6AE682}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{6AA15368-35CB-4793-8B6D-3E0F011AD4CC}"/>
-    <hyperlink ref="D72" r:id="rId71" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{E84512E9-A560-493F-9A87-9F9172237D26}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{35047CB4-1815-4A4C-9A19-232B2E38E5EC}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{849704AE-51B8-47D9-9FAA-A8DBD439928B}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{56236426-F4B5-4FFB-AECF-E7F8BD3EB787}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{42DCDF04-1652-4F27-9965-1B57E8EC2FF0}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{93E88782-6B73-4E15-B0F9-8125DEB8559E}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{B6CE05CB-1921-4FC4-90DC-6ADD3B8E65E4}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{F575C9A9-5918-478E-95B0-FFFF30AB3415}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{2D0CD125-6464-4732-B050-A27448203DCD}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{7C3E9578-83FF-4457-A72A-9EA8F24F9B57}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{1BAC0D02-4E6A-4437-B7D9-FF128E682F0D}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{7AA21E07-AF1B-4564-94AD-0C33A809103B}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{8EBE9A62-008F-4F7D-A44F-E9AFF8303CA6}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{005ADF1D-3CD2-4A10-BDBB-25AE16ECE35D}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{21875D21-8D66-4A37-9703-192B41B9A36E}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{F789FDA5-EA40-458F-AF43-8B2A28409441}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{2CE63706-7FC6-4194-B647-BFB7FF55A7C0}"/>
-    <hyperlink ref="D94" r:id="rId88" xr:uid="{EA5E2BC5-954C-44E0-B4B1-E9F576F1B9F3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C25BE92-56AD-499F-8DB9-AB200C722E9A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0E6312BE-81C4-4AC4-BB0A-8FFC6ABCBD50}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{DD700E20-B2BF-4B68-A90C-37FE9CA1C19C}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{BAEDF33B-3AF7-475D-ABED-6C2090BD68CC}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{8C53BCE3-3DB0-4053-88AF-8EA7AF4BD437}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{785CA111-5A77-45EA-98C9-F87A0FE0CE81}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{CF3EF535-7C10-4219-B011-9F133829E490}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{2DE05D84-689E-45F3-8490-D57B6829380D}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{1B63468D-80DA-44AB-9EEA-C504FC4F4A9A}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{63ED9283-9E05-4D97-B969-12CEE0C6CE55}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{475B9D5F-D2D6-4868-8A3D-80B9F777662C}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{390949A1-D6F3-42F2-AEED-6D9E10EA6F45}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{FD428086-887B-4FA0-A4F4-17240BC6BD92}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{5F5E18F4-B361-417E-B711-93826EC44140}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{B03B4540-A767-4420-AC8E-F8EC1FACFF32}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{2DB851DB-14E8-4F5B-A660-85DAA27009AC}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{4D4C0E4D-0D9B-4FE0-ADEF-7D183CF5975A}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{26194B08-7B03-42EF-B8A7-03C34B6BAF1A}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{D8F16FE8-522B-489A-AB6A-248C05724D6D}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{83D3AD63-A0B5-48AC-A58A-0482321053B0}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{8D14A2F3-B07E-43EF-9B0B-85CD4449E78C}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{57891565-BF9B-458E-A903-97DA48CC8F98}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{63E5E8E5-3C6C-4A5A-A520-9653CC3546AB}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{0A69AC82-105F-4869-9EF8-558B6F3072EE}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{644C3F81-9638-409F-9C42-B28CC5A30E51}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{3952F941-2424-4F7A-A34E-A71B40876FC3}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{34A6F4E9-3698-4CE1-8508-AAE8577F49D0}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{CEF11D4C-9050-4B60-9E2E-FDB8D530A9EF}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{71AB9A7A-2AAC-4116-91E8-7292ABB3D3DC}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{71D66055-A9BA-459F-AECA-96414AF25A2E}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{B484201B-C43E-4557-93F5-0E2D4727F561}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{480E3A71-EB90-4520-A62B-814F89DD807B}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{37EC01DE-30CA-41EF-9F0A-3CA7FE6F013D}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{6C8EFA34-626B-46D3-935F-F6D3C401658E}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{253C1A5B-0500-4778-B5F1-FD726DDAD50E}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{06DE3EB3-43C6-4972-A529-EE6141539C47}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{5ED066A6-6317-4375-BC50-E1072487BB88}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{7359D328-3CE8-4573-B42B-C5EA3E530CD1}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{E3FD3841-CD20-481C-8B29-155E29D7FB3C}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{FB506A94-C616-46FB-BDF6-68293242CC37}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{5213A3F6-7C14-4D7A-B7B2-E025B2FD8B23}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{C7C73C52-F84D-464C-B3AE-4E2B76827BC0}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{A6FE7A5A-01BC-476F-846A-52ACA3BBBD6A}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{C17D2F28-BB1C-41A5-BC24-F414C2B01DF8}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{ABD1A5C5-59FA-45CC-8E92-929DD0B76974}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{5E396454-350F-4FDC-B2D3-BCDC9AEBD8A6}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{948888AC-4DDB-408D-B548-9441C915AEDB}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{9736FFC4-EE27-404F-95E2-CE61E40BC0FA}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{1DB3657B-11EF-492A-BE5C-5BCFDE852A59}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{9A659317-811A-4E3C-AFCA-24B06E3DCE9D}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{0CBCF9B9-B8DC-4CF1-8BD2-4511DFB1CDD9}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{AF9581B7-B25C-4A89-8609-D9431747746A}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{7BE8A8AE-CA09-4125-8166-F76D85963ED3}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{2358A155-7725-43EB-AC80-C69443CD819E}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{6E152F3B-8C84-4760-B38B-83C87669B91B}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{FEC3EF6A-E8A2-4DFF-A33D-C0AABDEDE065}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{FAABCB3D-236D-4CF2-AFDE-BE519AD658BC}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{22E8F502-D2F1-4FB0-9200-D35F0448FD24}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{7959B4AC-415C-4443-9BA2-2310D07C282C}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{296C86B6-713E-4F0B-9954-A4302AE972EA}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{AB6DAB45-1555-4EE5-A6F6-026C2A869751}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{4725E412-D72F-4ABD-AD34-205DF858A8A2}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{FCBDC689-2CD1-4D43-98AD-4810592F5D3C}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{2DFE53B4-D199-43DF-BE0C-C761EF777CA6}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{C307867C-2394-4656-A409-D5B90E43D5D7}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{3B8502FE-DD9C-41F7-9AED-DC07670C203F}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{AAF5EB88-408E-4A57-8F3E-8C4C946D06D2}"/>
+    <hyperlink ref="D69" r:id="rId68" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{A59FCEFF-8927-4D81-8400-25B19E6E95DC}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{1695C0CF-5596-4819-9238-8A5303BDC2CC}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{F9FA0057-1017-48EA-A7CF-8B6AEE6E4F11}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{5D9C0B2B-C919-4F54-ADBD-3207B0F55AC4}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{9876FA1E-A083-477E-8FE3-593DC1B68012}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{7225FEDF-0A45-46F7-8F99-812C041ED5BA}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{0537C9F8-7EDD-440F-83C0-5592363F2659}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{F38EBA51-CF57-47A1-9792-250D8F9030F0}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{810EA3E5-C662-460F-8DCB-D47C85FE820C}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{D0B0309D-D94C-454D-8F47-32CF64985AA6}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{08AEC86B-B075-46C0-8C56-DD6E7771A3C7}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{19775CEB-9E3F-4095-B8A0-55BD391EE541}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{49F1F360-0EE4-46F2-853A-7CF2C534835A}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{52D0D86B-D92E-4CE1-846E-EEEDEEF8FD78}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{51FA931E-C40A-40D5-8727-F8732096C76B}"/>
+    <hyperlink ref="D88" r:id="rId83" xr:uid="{582F751E-51E5-4982-9828-1FC777F6103C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
 </worksheet>
 </file>
--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UR1-Leaderboard-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B29880-8F06-4659-AEF4-057A3656CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC1A68-3AC9-43FB-BC8A-08C49246D8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="357">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1015,6 +1015,87 @@
   </si>
   <si>
     <t>BioE</t>
+  </si>
+  <si>
+    <t>Aadra Sharma</t>
+  </si>
+  <si>
+    <t>b23187</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950302</t>
+  </si>
+  <si>
+    <t>Siddhi Pogakwar</t>
+  </si>
+  <si>
+    <t>B23415</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949634</t>
+  </si>
+  <si>
+    <t>Sania Goyal</t>
+  </si>
+  <si>
+    <t>B23385</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950421</t>
+  </si>
+  <si>
+    <t>Abhay jain</t>
+  </si>
+  <si>
+    <t>B23239</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949547</t>
+  </si>
+  <si>
+    <t>Riddhima Goyal</t>
+  </si>
+  <si>
+    <t>B23409</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950574</t>
+  </si>
+  <si>
+    <t>Suhani Sharma</t>
+  </si>
+  <si>
+    <t>B23054</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950693</t>
+  </si>
+  <si>
+    <t>Vani</t>
+  </si>
+  <si>
+    <t>B23505</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950665</t>
+  </si>
+  <si>
+    <t>Hitesh Chahar</t>
+  </si>
+  <si>
+    <t>B23017</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/950567</t>
+  </si>
+  <si>
+    <t>Akash Goel</t>
+  </si>
+  <si>
+    <t>B23032</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/profile/949336</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,19 +4183,19 @@
     </row>
     <row r="68" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45384.522222222222</v>
+        <v>45384.410416666666</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F68" s="7">
         <v>0</v>
@@ -4141,16 +4222,16 @@
     </row>
     <row r="69" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45384.410416666666</v>
+        <v>45384.591666666667</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>6</v>
@@ -4183,16 +4264,16 @@
         <v>45384.591666666667</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F70" s="7">
         <v>0</v>
@@ -4219,19 +4300,19 @@
     </row>
     <row r="71" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45384.591666666667</v>
+        <v>45384.593055555553</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -4258,19 +4339,19 @@
     </row>
     <row r="72" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45384.593055555553</v>
+        <v>45384.618750000001</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F72" s="7">
         <v>0</v>
@@ -4297,19 +4378,19 @@
     </row>
     <row r="73" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45384.618750000001</v>
+        <v>45384.622916666667</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F73" s="7">
         <v>0</v>
@@ -4336,19 +4417,19 @@
     </row>
     <row r="74" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45384.622916666667</v>
+        <v>45384.633333333331</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -4375,19 +4456,19 @@
     </row>
     <row r="75" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45384.633333333331</v>
+        <v>45384.645833333336</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
@@ -4414,19 +4495,19 @@
     </row>
     <row r="76" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45384.645833333336</v>
+        <v>45384.652777777781</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F76" s="7">
         <v>0</v>
@@ -4453,16 +4534,16 @@
     </row>
     <row r="77" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45384.652777777781</v>
+        <v>45384.659722222219</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>6</v>
@@ -4492,19 +4573,19 @@
     </row>
     <row r="78" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45384.656944444447</v>
+        <v>45384.660416666666</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -4531,19 +4612,19 @@
     </row>
     <row r="79" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45384.659722222219</v>
+        <v>45384.675000000003</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -4570,19 +4651,19 @@
     </row>
     <row r="80" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45384.660416666666</v>
+        <v>45384.675694444442</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
@@ -4609,19 +4690,19 @@
     </row>
     <row r="81" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45384.675000000003</v>
+        <v>45384.696527777778</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
@@ -4646,21 +4727,21 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45384.675694444442</v>
+        <v>45384.70957175926</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
@@ -4685,21 +4766,21 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45384.696527777778</v>
+        <v>45384.749363425923</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>249</v>
+        <v>143</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
@@ -4726,21 +4807,21 @@
     </row>
     <row r="84" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45384.70957175926</v>
+        <v>45384.753807870373</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="7">
+        <v>57</v>
+      </c>
+      <c r="F84" s="8">
         <v>0</v>
       </c>
       <c r="G84" s="2"/>
@@ -4765,21 +4846,21 @@
     </row>
     <row r="85" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45384.749363425923</v>
+        <v>45384.75984953704</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="7">
+        <v>12</v>
+      </c>
+      <c r="F85" s="8">
         <v>0</v>
       </c>
       <c r="G85" s="2"/>
@@ -4802,21 +4883,21 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45384.753807870373</v>
+        <v>45384.770277777781</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F86" s="8">
         <v>0</v>
@@ -4843,16 +4924,16 @@
     </row>
     <row r="87" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>45384.75984953704</v>
+        <v>45384.77306712963</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
@@ -4880,21 +4961,21 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>45384.770277777781</v>
+        <v>45384.793078703704</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F88" s="8">
         <v>0</v>
@@ -4921,19 +5002,19 @@
     </row>
     <row r="89" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>45384.77306712963</v>
+        <v>45384.793356481481</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F89" s="8">
         <v>0</v>
@@ -4960,16 +5041,16 @@
     </row>
     <row r="90" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>45384.793078703704</v>
+        <v>45384.803703703707</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>41</v>
@@ -4999,19 +5080,19 @@
     </row>
     <row r="91" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>45384.793356481481</v>
+        <v>45384.84306712963</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F91" s="8">
         <v>0</v>
@@ -5038,19 +5119,19 @@
     </row>
     <row r="92" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>45384.803703703707</v>
+        <v>45384.926493055558</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F92" s="8">
         <v>0</v>
@@ -5077,16 +5158,16 @@
     </row>
     <row r="93" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>45384.84306712963</v>
+        <v>45384.934074074074</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
@@ -5116,19 +5197,19 @@
     </row>
     <row r="94" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>45384.926493055558</v>
+        <v>45384.935081018521</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F94" s="8">
         <v>0</v>
@@ -5155,19 +5236,19 @@
     </row>
     <row r="95" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>45384.934074074074</v>
+        <v>45384.94021990741</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F95" s="8">
         <v>0</v>
@@ -5194,19 +5275,19 @@
     </row>
     <row r="96" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>45384.935081018521</v>
+        <v>45384.953298611108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="F96" s="8">
         <v>0</v>
@@ -5233,16 +5314,16 @@
     </row>
     <row r="97" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45384.94021990741</v>
+        <v>45414.426458333335</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>41</v>
@@ -5272,19 +5353,19 @@
     </row>
     <row r="98" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45384.953298611108</v>
+        <v>45414.524039351854</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="F98" s="8">
         <v>0</v>
@@ -5311,16 +5392,16 @@
     </row>
     <row r="99" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45414.426458333335</v>
+        <v>45414.591631944444</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>41</v>
@@ -5350,19 +5431,19 @@
     </row>
     <row r="100" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>45414.524039351854</v>
+        <v>45414.637696759259</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F100" s="8">
         <v>0</v>
@@ -5389,19 +5470,19 @@
     </row>
     <row r="101" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>45414.591631944444</v>
+        <v>45414.700115740743</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F101" s="8">
         <v>0</v>
@@ -5428,19 +5509,19 @@
     </row>
     <row r="102" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>45414.637696759259</v>
+        <v>45414.772905092592</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F102" s="8">
         <v>0</v>
@@ -5467,19 +5548,19 @@
     </row>
     <row r="103" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>45414.700115740743</v>
+        <v>45414.850983796299</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" s="8">
         <v>0</v>
@@ -5506,19 +5587,19 @@
     </row>
     <row r="104" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>45414.772905092592</v>
+        <v>45414.868692129632</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F104" s="8">
         <v>0</v>
@@ -5545,19 +5626,19 @@
     </row>
     <row r="105" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>45414.850983796299</v>
+        <v>45414.876967592594</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F105" s="8">
         <v>0</v>
@@ -5584,19 +5665,19 @@
     </row>
     <row r="106" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>45414.868692129632</v>
+        <v>45414.898622685185</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F106" s="8">
         <v>0</v>
@@ -5623,19 +5704,19 @@
     </row>
     <row r="107" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>45414.876967592594</v>
+        <v>45414.979861111111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F107" s="8">
         <v>0</v>
@@ -5662,19 +5743,19 @@
     </row>
     <row r="108" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>45414.898622685185</v>
+        <v>45414.990636574075</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F108" s="8">
         <v>0</v>
@@ -5701,19 +5782,19 @@
     </row>
     <row r="109" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>45414.979861111111</v>
+        <v>45445.048518518517</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="F109" s="8">
         <v>0</v>
@@ -5740,19 +5821,19 @@
     </row>
     <row r="110" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>45414.990636574075</v>
+        <v>45445.614259259259</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F110" s="8">
         <v>0</v>
@@ -5779,19 +5860,19 @@
     </row>
     <row r="111" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>45445.048518518517</v>
+        <v>45445.770011574074</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="F111" s="8">
         <v>0</v>
@@ -5816,13 +5897,25 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+    <row r="112" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45445.797291666669</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5843,13 +5936,25 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+    <row r="113" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45445.806388888886</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5870,13 +5975,25 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+    <row r="114" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45445.941400462965</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0</v>
+      </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5897,13 +6014,25 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+    <row r="115" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45445.963287037041</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -5924,13 +6053,25 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+    <row r="116" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45445.985231481478</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5951,13 +6092,25 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+    <row r="117" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45475.004988425928</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5978,13 +6131,25 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+    <row r="118" spans="1:25" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45475.08520833333</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -28498,91 +28663,89 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C25BE92-56AD-499F-8DB9-AB200C722E9A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{0E6312BE-81C4-4AC4-BB0A-8FFC6ABCBD50}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{DD700E20-B2BF-4B68-A90C-37FE9CA1C19C}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{BAEDF33B-3AF7-475D-ABED-6C2090BD68CC}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{8C53BCE3-3DB0-4053-88AF-8EA7AF4BD437}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{785CA111-5A77-45EA-98C9-F87A0FE0CE81}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{CF3EF535-7C10-4219-B011-9F133829E490}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{2DE05D84-689E-45F3-8490-D57B6829380D}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{1B63468D-80DA-44AB-9EEA-C504FC4F4A9A}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{63ED9283-9E05-4D97-B969-12CEE0C6CE55}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{475B9D5F-D2D6-4868-8A3D-80B9F777662C}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{390949A1-D6F3-42F2-AEED-6D9E10EA6F45}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{FD428086-887B-4FA0-A4F4-17240BC6BD92}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{5F5E18F4-B361-417E-B711-93826EC44140}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{B03B4540-A767-4420-AC8E-F8EC1FACFF32}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{2DB851DB-14E8-4F5B-A660-85DAA27009AC}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{4D4C0E4D-0D9B-4FE0-ADEF-7D183CF5975A}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{26194B08-7B03-42EF-B8A7-03C34B6BAF1A}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{D8F16FE8-522B-489A-AB6A-248C05724D6D}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{83D3AD63-A0B5-48AC-A58A-0482321053B0}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{8D14A2F3-B07E-43EF-9B0B-85CD4449E78C}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{57891565-BF9B-458E-A903-97DA48CC8F98}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{63E5E8E5-3C6C-4A5A-A520-9653CC3546AB}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{0A69AC82-105F-4869-9EF8-558B6F3072EE}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{644C3F81-9638-409F-9C42-B28CC5A30E51}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{3952F941-2424-4F7A-A34E-A71B40876FC3}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{34A6F4E9-3698-4CE1-8508-AAE8577F49D0}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{CEF11D4C-9050-4B60-9E2E-FDB8D530A9EF}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{71AB9A7A-2AAC-4116-91E8-7292ABB3D3DC}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{71D66055-A9BA-459F-AECA-96414AF25A2E}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{B484201B-C43E-4557-93F5-0E2D4727F561}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{480E3A71-EB90-4520-A62B-814F89DD807B}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{37EC01DE-30CA-41EF-9F0A-3CA7FE6F013D}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{6C8EFA34-626B-46D3-935F-F6D3C401658E}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{253C1A5B-0500-4778-B5F1-FD726DDAD50E}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{06DE3EB3-43C6-4972-A529-EE6141539C47}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{5ED066A6-6317-4375-BC50-E1072487BB88}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{7359D328-3CE8-4573-B42B-C5EA3E530CD1}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{E3FD3841-CD20-481C-8B29-155E29D7FB3C}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{FB506A94-C616-46FB-BDF6-68293242CC37}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{5213A3F6-7C14-4D7A-B7B2-E025B2FD8B23}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{C7C73C52-F84D-464C-B3AE-4E2B76827BC0}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{A6FE7A5A-01BC-476F-846A-52ACA3BBBD6A}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{C17D2F28-BB1C-41A5-BC24-F414C2B01DF8}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{ABD1A5C5-59FA-45CC-8E92-929DD0B76974}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{5E396454-350F-4FDC-B2D3-BCDC9AEBD8A6}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{948888AC-4DDB-408D-B548-9441C915AEDB}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{9736FFC4-EE27-404F-95E2-CE61E40BC0FA}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{1DB3657B-11EF-492A-BE5C-5BCFDE852A59}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{9A659317-811A-4E3C-AFCA-24B06E3DCE9D}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{0CBCF9B9-B8DC-4CF1-8BD2-4511DFB1CDD9}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{AF9581B7-B25C-4A89-8609-D9431747746A}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{7BE8A8AE-CA09-4125-8166-F76D85963ED3}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{2358A155-7725-43EB-AC80-C69443CD819E}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{6E152F3B-8C84-4760-B38B-83C87669B91B}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{FEC3EF6A-E8A2-4DFF-A33D-C0AABDEDE065}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{FAABCB3D-236D-4CF2-AFDE-BE519AD658BC}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{22E8F502-D2F1-4FB0-9200-D35F0448FD24}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{7959B4AC-415C-4443-9BA2-2310D07C282C}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{296C86B6-713E-4F0B-9954-A4302AE972EA}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{AB6DAB45-1555-4EE5-A6F6-026C2A869751}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{4725E412-D72F-4ABD-AD34-205DF858A8A2}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{FCBDC689-2CD1-4D43-98AD-4810592F5D3C}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{2DFE53B4-D199-43DF-BE0C-C761EF777CA6}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{C307867C-2394-4656-A409-D5B90E43D5D7}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{3B8502FE-DD9C-41F7-9AED-DC07670C203F}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{AAF5EB88-408E-4A57-8F3E-8C4C946D06D2}"/>
-    <hyperlink ref="D69" r:id="rId68" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{A59FCEFF-8927-4D81-8400-25B19E6E95DC}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{1695C0CF-5596-4819-9238-8A5303BDC2CC}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{F9FA0057-1017-48EA-A7CF-8B6AEE6E4F11}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{5D9C0B2B-C919-4F54-ADBD-3207B0F55AC4}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{9876FA1E-A083-477E-8FE3-593DC1B68012}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{7225FEDF-0A45-46F7-8F99-812C041ED5BA}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{0537C9F8-7EDD-440F-83C0-5592363F2659}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{F38EBA51-CF57-47A1-9792-250D8F9030F0}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{810EA3E5-C662-460F-8DCB-D47C85FE820C}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{D0B0309D-D94C-454D-8F47-32CF64985AA6}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{08AEC86B-B075-46C0-8C56-DD6E7771A3C7}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{19775CEB-9E3F-4095-B8A0-55BD391EE541}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{49F1F360-0EE4-46F2-853A-7CF2C534835A}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{52D0D86B-D92E-4CE1-846E-EEEDEEF8FD78}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{51FA931E-C40A-40D5-8727-F8732096C76B}"/>
-    <hyperlink ref="D88" r:id="rId83" xr:uid="{582F751E-51E5-4982-9828-1FC777F6103C}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{02169C15-92CF-4C7A-A960-08BEBD9AAF4D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E86F3893-99BF-474E-8B10-135B337065C8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{026800F5-6679-40D8-AD6A-F5D84A121B8E}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{76ADA6B2-2515-49C1-A4E9-5BF980A77CCD}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{768A8FC8-6688-4040-BC0A-EBD4E88BD213}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{E7BF5502-9694-4481-891B-9CEAC8BDA5E3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{7AEBB8F1-BE57-48E5-80C0-E5186BF06B6A}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{BC090003-1284-4B3C-81C9-DA94733FFBEE}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{5AB621EF-64F8-40D4-9A07-ED8E707D7FFA}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{6DD6D84F-7192-426F-978A-C8363EAA41C9}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{107C5532-BADD-4043-8F76-E0DB49E131A2}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{435AAAAB-87BC-4411-B901-1AB6F8DD224C}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{845A4175-DAB1-46A1-B7A1-AD3214231AD9}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{51AA8C9A-FD9A-42F3-9F22-54FF39168E52}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{78F0B3BE-4866-4835-AF95-BAED80EC14F3}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{7CFE45CF-CCC4-4C77-A1B1-D224ABEF3B46}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{4F145C97-C62E-4797-84E4-E555EE33BAE1}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{90955449-CDFB-4D5C-8A74-44A3195910A0}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{8F4DA74C-341F-4168-B423-207AECFC1A19}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{98005A0C-8E3E-4C62-B370-D5C6B4968FD2}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{8DAD59D4-0E78-453C-8312-8B532C1B6576}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{F76C043F-A719-4344-B4D6-3F11AECA33A8}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{AF8799B6-750A-41AB-B0AB-147C279F63EB}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{63629A56-0783-456C-B3F9-2599FDA66BE4}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{8B2829C6-5703-433F-9E5A-A52A661DE3ED}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{5C02DBFC-845C-4BAE-B964-B088849A5657}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{B4FE4A7B-88E4-4CFA-9BA0-AE5084EE9758}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{115B517B-B9F5-4427-9BBC-C488A67EBEC3}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{29F33D32-402C-4E97-B2C8-50D3C359E255}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{9106695C-98B0-44C8-8F51-7D608A8B6B21}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{581AB9CB-E887-4392-922D-75A5E0294F27}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{E5E67D44-B34B-4992-81F0-A52E4612F2A2}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{A6C58FD2-AB95-48DF-9697-43C26DF3B1A2}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{E33AB001-F5AF-4F78-BD32-114825DFF046}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{0AEDE527-4C77-4487-A2A7-173D5EE79126}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{ECB46BCE-95C1-4350-99C3-C0B645EA02F3}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{21576D18-3D9A-449C-B074-ED4EE90171B8}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{41E62626-A2C3-45A7-9D60-25DE262748B8}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{8F34F82F-1D7D-48AF-A278-BC58D72CFB4E}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{12EF190F-64B4-45B0-B8FE-6F257A07BDA4}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{A4BED3C1-4E83-491D-83EC-036418DF6048}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{20603BB4-EBA0-477B-A0D0-04AC8588346C}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{43ED838E-676D-44F8-8C7F-FB131B7072B2}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{2020FD9C-01C1-4989-A1F7-BF5527F94DC2}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{2535ADB8-A19D-42B7-9760-93C4D0F3A846}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{E007C9D4-5051-48E8-B61B-7E845965C3DA}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{AEEE2C0D-C210-4250-A8AC-0B30AE9A4213}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{077F2C77-3B59-4436-B171-9A29B8C12810}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{F3DE3461-44EA-4DD3-A346-9992A39FA026}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{55DEAF1F-0452-4DB6-92A0-83C053C94071}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{6BD8ECE1-0348-42F6-B389-2719B3AB2D6E}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{D3D78700-ECF1-440B-989B-87384E7F06E1}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{F7C9537A-BEAA-4A3B-BC6E-9409B749CD91}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{EF967BF0-075F-4F02-A6EA-CE03337BD723}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{71B3E751-9895-4B58-A2A0-C428DED85EE9}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{BE7C08D1-5BF5-400D-8ADC-DA54FAC21100}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{71A84235-CAEC-4825-B8C6-4579DD85A4AB}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{E02F14B1-BC7D-4959-BD98-B510E92E1A51}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{7F8FCAAF-4D1C-4B2B-9D0A-959F3778014A}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{5A972759-5C42-488E-9822-43FDEB57871B}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{57C55231-B1AB-467C-B487-69E494D7A466}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{080DA965-E5E9-42C4-8849-F76A175D1DF5}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{7B5D1E71-3486-4BF9-A486-EE4540F12190}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{987A61C8-46A4-47D2-BB33-3AD98113582F}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{E0E4BCF1-E1BB-4F0B-BDCE-BAEE035419EF}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{E2957C0A-DDC9-4E0D-A1DA-F6AF9DA2F149}"/>
+    <hyperlink ref="D68" r:id="rId67" display="https://www.beecrowd.com.br/judge/en/users/basic-info" xr:uid="{94F9BE7E-2811-4FDA-B136-31371F643380}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{1AE803C4-47D0-44D7-B01A-5921AD15CF93}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{D699D1AE-92D7-43BC-8681-2CE1C1C08CEF}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{84519F1B-D551-426E-B85B-BBA69C76678E}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{C4E2A3CF-D68D-41BB-BEF5-29A17E9D1EA9}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{134BF017-413B-4A97-B77E-1408B03A178C}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{D3D0865D-CB4A-4516-A728-F9DD1FD2E935}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{EBB40379-FC0D-4443-BDE1-41382F37830F}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{59ACF66D-1267-4ED6-AB77-BBFF6AF96025}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{2E71EBE5-9BA0-453D-976A-23153B6AF813}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{13BCC467-1D5E-4EF6-99FA-57051E1708AA}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{7B4F3032-D387-4267-9DB3-F927EB78E1C4}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{A1ED8743-78E5-43E9-9D0D-2E2D72EFAC35}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{29653890-6A12-4527-A117-38C94B4C5E1F}"/>
+    <hyperlink ref="D86" r:id="rId81" xr:uid="{38391600-E7AC-4A6E-8F4F-3F144CD5DAA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId82"/>
 </worksheet>
 </file>